--- a/Texts/Сюжетные сцены/Глава 3.xlsx
+++ b/Texts/Сюжетные сцены/Глава 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="1899">
   <si>
     <t>Обозначение сцены словами</t>
   </si>
@@ -2686,6 +2686,3036 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòìé íú áôäåí ãïóïâú ë\nâúðïìîåîéý èàäàîéÿ, óï îàäï òëàèàóû ïá\nüóïí [CS:N]Áéäôõô[CR] ô Äïòëé Ñàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/m03a0501.ssb</t>
+  </si>
+  <si>
+    <t>Вы подошли к Бидуфу</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?[K] Are you folks all set and\nready for some exploring?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not yet, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Just give me a holler when\nyou\'re all ready to go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then we\'ll all have a gander at\nthe Outlaw Notice Board and pick out a suitable\noutlaw for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так что?[K] Вы подготовились к\nвылазке?</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сообщите мне, если приготовитесь\nк вылазке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После этого, мы посмотрим на\nДоску Разыскиваемых и я помогу подобрать\nнегодяя вам по силам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë œóï?[K] Âú ðïäãïóïâéìéòû ë\nâúìàèëå?</t>
+  </si>
+  <si>
+    <t>Äà</t>
+  </si>
+  <si>
+    <t>Îåó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òïïáþéóå íîå, åòìé ðñéãïóïâéóåòû\në âúìàèëå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå üóïãï, íú ðïòíïóñéí îà\nÄïòëô Ñàèúòëéâàåíúö é ÿ ðïíïãô ðïäïáñàóû\nîåãïäÿÿ âàí ðï òéìàí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ещё нет, так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åþæ îåó, óàë?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/m03a0502.ssb</t>
+  </si>
+  <si>
+    <t>Вы начинаете задание на поимку негодяя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, yes sirree! Reckon you all\nare all ready!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then let\'s pick ourselves a\nlawbreaker for you to find.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, you\'ve got your pick of\nthis sorry bunch of characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s see. Which should we pick?</t>
+  </si>
+  <si>
+    <t>48, 52, 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ahem.[K] As your mentor, how\nabout I do the choosing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t pick one that looks scary!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t choose anyone too scary!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please don\'t pick anyone scary!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes sirree, I hear you![K] Let\'s see.\nEenie, meenie…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand clear! Updating listings!</t>
+  </si>
+  <si>
+    <t>Дагтрио</t>
+  </si>
+  <si>
+    <t>121, 124</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s that? What\'s happening?</t>
+  </si>
+  <si>
+    <t>168, 172, 176</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, the data\'s getting updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s being...updated?</t>
+  </si>
+  <si>
+    <t>189, 193, 197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yikes! Did you see that?! The\npanel flipped over!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s going on here?</t>
+  </si>
+  <si>
+    <t>242, 246, 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Outlaw Notice Board and Job\nBulletin Board are set up on revolving panels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While the panel is flipped over…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Pokémon named [CS:N]Dugtrio[CR]\nswaps out the old jobs with new ones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Dugtrio[CR]?</t>
+  </si>
+  <si>
+    <t>288, 292, 296</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, прекрасно! Вы готовы!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тогда, нужно выбрать вам\nподходящего по силам негодяя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У вас есть выбор из этих печально\nизвестных личностей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Посмотрим. Кого же нам\nвыбрать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кхм.[K] Поскольку я вам помогаю, то,\nможет лучше я выберу за вас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Только не выбирай тех, кто\nвыглядит страшно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но не выбирай никого, кто\nвыглядит страшно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, только не выбирай\nтех, кто выглядит страшно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Конееечно, вас понял![K] Посмотрим.\nЭники-беники...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Просьба отойти! Обновление заданий!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что это? Что происходит?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, задания обновляются.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они... Обновляются?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Ты видел?! Доска\nперевернулась!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Ты видела?! Доска\nперевернулась!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что здесь происходит?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доска Объявлений и Доска\nРазыскиваемых сделаны таким образом,\nчтобы вращаться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда доска переворачивается...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Покемон [CS:N]Дагтрио[CR] заменяет\nустаревшие задания новыми.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Дагтрио[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, ðñåëñàòîï! Âú ãïóïâú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïãäà, îôçîï âúáñàóû âàí\nðïäöïäÿþåãï ðï òéìàí îåãïäÿÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô âàò åòóû âúáïñ éè üóéö ðåœàìûîï\néèâåòóîúö ìéœîïòóåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòíïóñéí. Ëïãï çå îàí\nâúáñàóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëöí.[K] Ðïòëïìûëô ÿ âàí ðïíïãàý, óï,\níïçåó ìôœšå ÿ âúáåñô èà âàò?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïìûëï îå âúáéñàê óåö, ëóï\nâúãìÿäéó òóñàšîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îå âúáéñàê îéëïãï, ëóï\nâúãìÿäéó òóñàšîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, óïìûëï îå âúáéñàê\nóåö, ëóï âúãìÿäéó òóñàšîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïîåååœîï, âàò ðïîÿì![K] Ðïòíïóñéí.\nÜîéëé-áåîéëé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòûáà ïóïêóé! Ïáîïâìåîéå èàäàîéê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï üóï? Œóï ðñïéòöïäéó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, èàäàîéÿ ïáîïâìÿýóòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé... Ïáîïâìÿýóòÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Óú âéäåì?! Äïòëà\nðåñåâåñîôìàòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Óú âéäåìà?! Äïòëà\nðåñåâåñîôìàòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï èäåòû ðñïéòöïäéó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïòëà Ïáùÿâìåîéê é Äïòëà\nÑàèúòëéâàåíúö òäåìàîú óàëéí ïáñàèïí,\nœóïáú âñàþàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà äïòëà ðåñåâïñàœéâàåóòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëåíïî [CS:N]Äàãóñéï[CR] èàíåîÿåó\nôòóàñåâšéå èàäàîéÿ îïâúíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äàãóñéï[CR]?</t>
+  </si>
+  <si>
+    <t>SCRIPT/V03P03A/m03a0505.ssb</t>
+  </si>
+  <si>
+    <t>Показ того, как обновляются задания</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Updating data is [CS:N]Dugtrio[CR]\'s duty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He tunnels his way to our guild…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then he flips the panel and\nupdates the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This duty doesn\'t get noticed\nmuch, but it\'s very important. Yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s why [CS:N]Dugtrio[CR] takes such\ngreat pride in the duty he does!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Обновление заданий - это\nобязанность [CS:N]Дагтрио[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он прокапывается до нашей\nгильдии...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После чего переворачивает доски и\nзаменяет задания.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Его работу мало кто замечает, но\nона очень важна. Да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно поэтому [CS:N]Дагтрио[CR] так\nгордится своей работой!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïáîïâìåîéå èàäàîéê - üóï\nïáÿèàîîïòóû [CS:N]Äàãóñéï[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî ðñïëàðúâàåóòÿ äï îàšåê\nãéìûäéé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå œåãï ðåñåâïñàœéâàåó äïòëé é\nèàíåîÿåó èàäàîéÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åãï ñàáïóô íàìï ëóï èàíåœàåó, îï\nïîà ïœåîû âàçîà. Äà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï ðïüóïíô [CS:N]Äàãóñéï[CR] óàë\nãïñäéóòÿ òâïåê ñàáïóïê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, is that so?</t>
+  </si>
+  <si>
+    <t>Дагтрио обновил задания</t>
+  </si>
+  <si>
+    <t>28, 31, 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Update completed! Stand clear!</t>
+  </si>
+  <si>
+    <t>49, 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, looks like he\'s done.</t>
+  </si>
+  <si>
+    <t>58, 72, 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes sirree! The data is updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The list of outlaws has been\nrefreshed, so let\'s pick one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? What\'s ailing you?[K] Why\nare you shivering all of a sudden?</t>
+  </si>
+  <si>
+    <t>144, 148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s not cold here, after all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-t-take a look at this,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L-l-look at this, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P-p-please look at this,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Up top! On the left!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At the top! On the left!</t>
+  </si>
+  <si>
+    <t>221, 225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s [CS:N]Drowzee[CR]![K] H-he\'s a\nwanted criminal!</t>
+  </si>
+  <si>
+    <t>250, 254, 258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get moving! [CS:N]Azurill[CR]\nwill be in serious trouble!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get moving! [CS:N]Azurill[CR]\nwill be in danger!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to hurry! [CS:N]Azurill[CR] will\nbe in trouble!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now what\'s going on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where are you all off to?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, вот значит как?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Задания обновлены! Просьба отойти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, кажется, он закончил.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Верррно! Задания обновлены.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Список негодяев обновился,\nпоэтому выберем кого-нибудь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А? Что случилось?[K] Почему ты так\nвнезапно начал дрожать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А? Что случилось?[K] Почему ты так\nвнезапно начала дрожать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь ведь совсем не холодно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> П-п-посмотри, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В-в-взгляни на это,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> П-п-прошу, посмотри,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сверху! Слева!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В верхнем левом углу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это [CS:N]Дроузи[CR]![K]\nО-он разыскиваемый преступник!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно спешить! [CS:N]Азурилл[CR]\nв ужасной опасности!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно спешить! [CS:N]Азурилл[CR]\nв опасности!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поспешим! [CS:N]Азурилл[CR] в ужасной\nопасности!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да что происходит?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куда они убежали?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, âïó èîàœéó ëàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàäàîéÿ ïáîïâìåîú! Ðñïòûáà ïóïêóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, ëàçåóòÿ, ïî èàëïîœéì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåñññîï! Èàäàîéÿ ïáîïâìåîú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðéòïë îåãïäÿåâ ïáîïâéìòÿ,\nðïüóïíô âúáåñåí ëïãï-îéáôäû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À? Œóï òìôœéìïòû?[K] Ðïœåíô óú óàë\nâîåèàðîï îàœàì äñïçàóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À? Œóï òìôœéìïòû?[K] Ðïœåíô óú óàë\nâîåèàðîï îàœàìà äñïçàóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû âåäû òïâòåí îå öïìïäîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ð-ð-ðïòíïóñé, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â-â-âèãìÿîé îà üóï,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ð-ð-ðñïšô, ðïòíïóñé,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òâåñöô! Òìåâà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â âåñöîåí ìåâïí ôãìô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï [CS:N]Äñïôèé[CR]![K]\nÏ-ïî ñàèúòëéâàåíúê ðñåòóôðîéë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï òðåšéóû! [CS:N]Àèôñéìì[CR]\nâ ôçàòîïê ïðàòîïòóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï òðåšéóû! [CS:N]Àèôñéìì[CR]\nâ ïðàòîïòóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòðåšéí! [CS:N]Àèôñéìì[CR] â ôçàòîïê\nïðàòîïòóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà œóï ðñïéòöïäéó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëôäà ïîé ôáåçàìé?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/m03a0511.ssb</t>
+  </si>
+  <si>
+    <t>Встреча с Мариллом</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey! There\'s [CS:N]Marill[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Look! There\'s [CS:N]Marill[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! [CS:N]Marill[CR]\'s over there!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Marill[CR], what\'s wrong?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Marill[CR], what\'s the matter?</t>
+  </si>
+  <si>
+    <t>94, 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where are [CS:N]Azurill[CR] and [CS:N]Drowzee[CR]?</t>
+  </si>
+  <si>
+    <t>104, 108, 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes...about them...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After we all left, we went\nlooking for our lost item together…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I wound up all alone when\nMr. [CS:N]Drowzee[CR] went somewhere with [CS:N]Azurill[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I called and called! But they\ndidn\'t come back.[K] I got scared…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So which way did they go?!</t>
+  </si>
+  <si>
+    <t>141, 145, 149</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Th-that way!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй! Это же [CS:N]Марилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Смотри! Это [CS:N]Марилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Там [CS:N]Марилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Марилл[CR], что случилось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Марилл[CR], что произошло?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Где [CS:N]Азурилл[CR] и [CS:N]Дроузи[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да... Они!..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После того, как мы ушли из\nгорода, мы отправились на поиски нашей\nпропавшей вещи...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, когда Мистер [CS:N]Дроузи[CR] куда-то\nпошёл с [CS:N]Азуриллом[CR], я оказался один.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я долго их звал! Но они так и не\nпоявились.[K] Я испугался...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куда они ушли?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Т-туда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê! Üóï çå [CS:N]Íàñéìì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òíïóñé! Üóï [CS:N]Íàñéìì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Óàí [CS:N]Íàñéìì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàñéìì[CR], œóï òìôœéìïòû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàñéìì[CR], œóï ðñïéèïšìï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãäå [CS:N]Àèôñéìì[CR] é [CS:N]Äñïôèé[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà... Ïîé!..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå óïãï, ëàë íú ôšìé éè\nãïñïäà, íú ïóðñàâéìéòû îà ðïéòëé îàšåê\nðñïðàâšåê âåþé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, ëïãäà Íéòóåñ [CS:N]Äñïôèé[CR] ëôäà-óï\nðïšæì ò [CS:N]Àèôñéììïí[CR], ÿ ïëàèàìòÿ ïäéî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äïìãï éö èâàì! Îï ïîé óàë é îå\nðïÿâéìéòû.[K] Ÿ éòðôãàìòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëôäà ïîé ôšìé?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó-óôäà!</t>
+  </si>
+  <si>
+    <t>Погоня за Дроузи</t>
+  </si>
+  <si>
+    <t>SCRIPT/D03P11A/m03a0601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re sure [CS:N]Drowzee[CR] and [CS:N]Azurill[CR]\nwent off in this direction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You think [CS:N]Drowzee[CR] and [CS:N]Azurill[CR]\nwent in this direction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So you think that [CS:N]Drowzee[CR] and\n[CS:N]Azurill[CR] went off in this direction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [hero]! The [CS:N]Drowzee[CR]\nand [CS:N]Azurill[CR] you saw in your dream…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You said you saw them in a\nmountainous place, right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think the two of them are up\nahead here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I get the feeling that they\'re\nup ahead here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think they\'re up ahead here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s roll, [hero]. Quick!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get going, [hero]!</t>
+  </si>
+  <si>
+    <t>122, 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты уверен, что [CS:N]Дроузи[CR] и\n[CS:N]Азурилл[CR] пошли в эту сторону?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты считаешь, что [CS:N]Дроузи[CR] и\n[CS:N]Азурилл[CR] пошли в эту сторону?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Думаешь, что [CS:N]Дроузи[CR] и\n[CS:N]Азурилл[CR] пошли в эту сторону?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, [hero]!\nТе [CS:N]Дроузи[CR] и [CS:N]Азурилл[CR], что ты видел в своём\nвидении...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, [hero]!\nТе [CS:N]Дроузи[CR] и [CS:N]Азурилл[CR], что ты видела в\nсвоём видении...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты сказал, что они были в\nкакой-то гористой местности, так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты сказала, что они были в\nкакой-то гористой местности, так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Думаю, что эти двое где-то\nна вершине.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подозреваю, что эти двое\nушли куда-то наверх.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я думаю, что они где-то\nвпереди.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пойдём, [hero].\nБыстрее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú ôâåñåî, œóï [CS:N]Äñïôèé[CR] é\n[CS:N]Àèôñéìì[CR] ðïšìé â üóô òóïñïîô?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú òœéóàåšû, œóï [CS:N]Äñïôèé[CR] é\n[CS:N]Àèôñéìì[CR] ðïšìé â üóô òóïñïîô?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äôíàåšû, œóï [CS:N]Äñïôèé[CR] é\n[CS:N]Àèôñéìì[CR] ðïšìé â üóô òóïñïîô?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, [hero]!\nÓå [CS:N]Äñïôèé[CR] é [CS:N]Àèôñéìì[CR], œóï óú âéäåì â òâïæí\nâéäåîéé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, [hero]!\nÓå [CS:N]Äñïôèé[CR] é [CS:N]Àèôñéìì[CR], œóï óú âéäåìà â\nòâïæí âéäåîéé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú òëàèàì, œóï ïîé áúìé â\nëàëïê-óï ãïñéòóïê íåòóîïòóé, óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú òëàèàìà, œóï ïîé áúìé â\nëàëïê-óï ãïñéòóïê íåòóîïòóé, óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äôíàý, œóï üóé äâïå ãäå-óï\nîà âåñšéîå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïäïèñåâàý, œóï üóé äâïå\nôšìé ëôäà-óï îàâåñö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äôíàý, œóï ïîé ãäå-óï\nâðåñåäé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïêäæí, [hero].\nÁúòóñåå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/m03a0701.ssb</t>
+  </si>
+  <si>
+    <t>Поражение</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm. That didn\'t end well…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh. That didn\'t go well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmmm... This is pretty hard.\nLet\'s break for today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmmm... This won\'t be easy...\nLet\'s break for today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmmm... This is really tough...\nLet\'s call it off for today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм. У нас не вышло...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух. У нас не вышло...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хммм... Это нелёгкая\nзадача. Сделаем перерыв.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хммм... Будет непросто...\nСделаем перерыв.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хммм... Это очень трудная\nзадача... Нужно передохнуть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí. Ô îàò îå âúšìï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö. Ô îàò îå âúšìï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öííí... Üóï îåìæãëàÿ\nèàäàœà. Òäåìàåí ðåñåñúâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öííí... Áôäåó îåðñïòóï...\nÒäåìàåí ðåñåñúâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öííí... Üóï ïœåîû óñôäîàÿ\nèàäàœà... Îôçîï ðåñåäïöîôóû.</t>
+  </si>
+  <si>
+    <t>После поражения</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/m03a0702.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurry! We have to rescue\n[CS:N]Azurill[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurry! Off to [CS:P]Mt. Bristle[CR]!</t>
+  </si>
+  <si>
+    <t>15, 19, 23</t>
+  </si>
+  <si>
+    <t>29, 33, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поспешим на Гору [CS:P]Бристл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòðåšéí îà Ãïñô [CS:P]Áñéòóì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скорее! Нужно спасти\n[CS:N]Азурилла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñåå! Îôçîï òðàòóé\n[CS:N]Àèôñéììà[CR]!</t>
+  </si>
+  <si>
+    <t>Вы добрались до Дроузи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uh-oh. It\'s a dead end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excuse me, Mr. [CS:N]Drowzee[CR]. Where\nis my lost item?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Could you show me where the\nitem is now?</t>
+  </si>
+  <si>
+    <t>SCRIPT/D03P41A/m03a0801.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sorry, kiddo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your lost item? It\'s not here,\nthat\'s for sure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My...big brother…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My big brother\'s following us,\nright? He\'s coming soon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nope. Your big brother\'s\nnot coming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll let you in on a little secret.\nThis was all a trick.[K] I deceived you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But let\'s not dwell on that.\nThere\'s a little favor I need to ask.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See that hole behind you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But as you can see, I\'m too big\nto squirm my way through that hole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And that\'s where you come in!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t worry. Just do as I say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do that, then I\'ll help you get\nback out of there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B-but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go on, get going!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go into that hole. And don\'t\nforget to bring back the treasure!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want my big brother!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H-hey! Stop that!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sheesh! I said that I\'ll take you\nhome when you\'re done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stop right there!</t>
+  </si>
+  <si>
+    <t>276, 280, 284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We won\'t let you do that![K]\n[CS:N]Drowzee[CR], you bully!</t>
+  </si>
+  <si>
+    <t>320, 324, 328</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H-how did you find this place?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re Team [team:]![K]\nAn exploration team!</t>
+  </si>
+  <si>
+    <t>348, 352, 356</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No criminal can escape us!</t>
+  </si>
+  <si>
+    <t>362, 366, 370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An exploration team?![K] You came\nto apprehend…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Huh?[K] Are you...trembling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A-ha! I\'ve figured it out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You say you\'re on an exploration\nteam, but you\'re total rookies!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urk!</t>
+  </si>
+  <si>
+    <t>433, 437, 441</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heh.[K] That\'s right, I\'m a wanted\nPokémon with a bounty on my head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But can you two do the job?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can you confront this outlaw and\nbring him to justice?</t>
+  </si>
+  <si>
+    <t>460, 464, 468</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Y-yes. We can![K] Yes, we can!</t>
+  </si>
+  <si>
+    <t>480, 484, 488</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'d never lose to a bad guy\nlike you!</t>
+  </si>
+  <si>
+    <t>498, 502, 506</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha ha ha![K] I\'ve been chased by\nall sorts of exploration teams in my day…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But never a sorrier-looking\nbunch than you two!</t>
+  </si>
+  <si>
+    <t>534, 538, 542</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This should be a laugh.[K] Let\'s see\nif you can take me down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Show me what you\'ve got!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s a rumor that there\'s a\ntrove of thief treasure inside there!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой-ёй. Это тупик.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Извините, Мистер [CS:N]Дроузи[CR].\nГде моя потерянная вещь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прости, малыш.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Твоя потерянная вещь? Её здесь\nопределённо нет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мой...старший брат...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мой старший брат идёт за нами,\nда? Он ведь придёт?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не-а. Твой старший брат не\nпридёт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я раскрою тебе крохотную тайну.\nВсё это - уловка.[K] Я обманул тебя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но не будем на этом\nзацикливаться. Я хочу тебя кое о чём\nпопросить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Видишь эту щель позади тебя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В общем...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ходят слухи, что за ней\nскрывается тайник, полный награбленных\nсокровищ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, как видишь, я немного\nвеликоват и не могу пролезть в эту щель.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А ты по размеру как раз\nподходишь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не переживай. Просто сделай так,\nкак я скажу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сделаешь и я помогу тебе оттуда\nвылезти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Н-но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай, пошевеливайся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Залезай в щель. И не забудь\nпринести мне мои сокровища!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу к брату!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Э-эй! А ну прекращай!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Стой где стоишь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы не позволим тебе это\nсделать![K] [CS:N]Дроузи[CR], ты негодяй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> К-как вы нашли это место?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы - Команда [team:]![K]\nКоманда исследователей!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ни один негодяй не\nускользнёт от нас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команда исследователей?![K]\nВы пришли арестовать...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...А?[K] Ты что... Дрожишь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А-га! Всё ясно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты говоришь, что вы - команда\nисследователей, но на самом деле, вы ещё\nсовсем новички!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе.[K] Да, так и есть.\nЯ - объявленный в розыск Покемон, за чью\nголову назначена награда.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но сможете ли вы выполнить это\nзадание?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сможете ли вы одолеть этого\nнегодяя и предать его правосудию?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Д-да. Мы сможем![K] Да, мы\nсможем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы никогда не проиграем\nкому-то вроде тебя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха-ха-ха![K] В своё время меня\nпреследовали самые разные команды\nисследователей...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я ещё никогда не видел\nстоль жалкую группу, как вы!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это смехотворно.[K] Посмотрим,\nсможете ли вы со мной справиться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Покажите, на что вы\nспособны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê-æê. Üóï óôðéë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éèâéîéóå, Íéòóåñ [CS:N]Äñïôèé[CR].\nÃäå íïÿ ðïóåñÿîîàÿ âåþû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòóé, íàìúš.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óâïÿ ðïóåñÿîîàÿ âåþû? Åæ èäåòû\nïðñåäåìæîîï îåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïê...òóàñšéê áñàó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïê òóàñšéê áñàó éäæó èà îàíé,\näà? Ïî âåäû ðñéäæó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå-à. Óâïê òóàñšéê áñàó îå\nðñéäæó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàòëñïý óåáå ëñïöïóîôý óàêîô.\nÂòæ üóï - ôìïâëà.[K] Ÿ ïáíàîôì óåáÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îå áôäåí îà üóïí\nèàøéëìéâàóûòÿ. Ÿ öïœô óåáÿ ëïå ï œæí\nðïðñïòéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âéäéšû üóô þåìû ðïèàäé óåáÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ïáþåí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïäÿó òìôöé, œóï èà îåê\nòëñúâàåóòÿ óàêîéë, ðïìîúê îàãñàáìåîîúö\nòïëñïâéþ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, ëàë âéäéšû, ÿ îåíîïãï\nâåìéëïâàó é îå íïãô ðñïìåèóû â üóô þåìû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À óú ðï ñàèíåñô ëàë ñàè\nðïäöïäéšû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå ðåñåçéâàê. Ðñïòóï òäåìàê óàë,\nëàë ÿ òëàçô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òäåìàåšû é ÿ ðïíïãô óåáå ïóóôäà\nâúìåèóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Î-îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê, ðïšåâåìéâàêòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàìåèàê â þåìû. É îå èàáôäû\nðñéîåòóé íîå íïé òïëñïâéþà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô ë áñàóô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ü-üê! À îô ðñåëñàþàê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òóïê ãäå òóïéšû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îå ðïèâïìéí óåáå üóï\nòäåìàóû![K] [CS:N]Äñïôèé[CR], óú îåãïäÿê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ë-ëàë âú îàšìé üóï íåòóï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú - Ëïíàîäà [team:]![K]\nËïíàîäà éòòìåäïâàóåìåê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îé ïäéî îåãïäÿê îå\nôòëïìûèîæó ïó îàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäà éòòìåäïâàóåìåê?![K]\nÂú ðñéšìé àñåòóïâàóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...À?[K] Óú œóï... Äñïçéšû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À-ãà! Âòæ ÿòîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú ãïâïñéšû, œóï âú - ëïíàîäà\néòòìåäïâàóåìåê, îï îà òàíïí äåìå, âú åþæ\nòïâòåí îïâéœëé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå.[K] Äà, óàë é åòóû.\nŸ - ïáùÿâìåîîúê â ñïèúòë Ðïëåíïî, èà œûý\nãïìïâô îàèîàœåîà îàãñàäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï òíïçåóå ìé âú âúðïìîéóû üóï\nèàäàîéå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òíïçåóå ìé âú ïäïìåóû üóïãï\nîåãïäÿÿ é ðñåäàóû åãï ðñàâïòôäéý?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ä-äà. Íú òíïçåí![K] Äà, íú\nòíïçåí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îéëïãäà îå ðñïéãñàåí\nëïíô-óï âñïäå óåáÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà-öà-öà![K] Â òâïæ âñåíÿ íåîÿ\nðñåòìåäïâàìé òàíúå ñàèîúå ëïíàîäú\néòòìåäïâàóåìåê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ åþæ îéëïãäà îå âéäåì\nòóïìû çàìëôý ãñôððô, ëàë âú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï òíåöïóâïñîï.[K] Ðïòíïóñéí,\nòíïçåóå ìé âú òï íîïê òðñàâéóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëàçéóå, îà œóï âú\nòðïòïáîú!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D03P41A/m03a0901.ssb</t>
+  </si>
+  <si>
+    <t>Рематч с Дроузи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Drowzee[CR]!</t>
+  </si>
+  <si>
+    <t>37, 41, 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not you again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let go of [CS:N]Azurill[CR], [CS:N]Drowzee[CR]!</t>
+  </si>
+  <si>
+    <t>62, 66, 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You foolish pests. Do I have to\nembarrass you again?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You seem to hunger for\npunishment. Let me help you out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C\'mon! Whenever you want!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Дроузи[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Опять вы здесь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отпусти [CS:N]Азурилла[CR], [CS:N]Дроузи[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Глупые вредители. Мне снова\nуказать, где ваше место?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы так и жаждете наказания.\nЯ вам его предоставлю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперед! Покончим с этим!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äñïôèé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïðÿóû âú èäåòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðôòóé [CS:N]Àèôñéììà[CR], [CS:N]Äñïôèé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãìôðúå âñåäéóåìé. Íîå òîïâà\nôëàèàóû, ãäå âàšå íåòóï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú óàë é çàçäåóå îàëàèàîéÿ.\nŸ âàí åãï ðñåäïòóàâìý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñåä! Ðïëïîœéí ò üóéí!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D03P41A/m03a1001.ssb</t>
+  </si>
+  <si>
+    <t>Победа над Дроузи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rrrrawrrr!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We came to rescue you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re here to rescue you.</t>
+  </si>
+  <si>
+    <t>58, 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you all right? You\'re not\nhurt, are you?</t>
+  </si>
+  <si>
+    <t>72, 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you OK? You\'re not hurt,\nare you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Awesome! That\'s a big relief!</t>
+  </si>
+  <si>
+    <t>97, 101, 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your big brother is waiting.\nLet\'s go home!</t>
+  </si>
+  <si>
+    <t>111, 115, 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ррррааааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы пришли спасти тебя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы здесь, чтобы спасти\nтебя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты в порядке? Не ранен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С тобой всё порядке?\nТы не ранен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я в порядке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чудесно! Какое облегчение!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Твой старший брат ждёт\nтебя. Идём домой!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ññññààààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðñéšìé òðàòóé óåáÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú èäåòû, œóïáú òðàòóé\nóåáÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú â ðïñÿäëå? Îå ñàîåî?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò óïáïê âòæ ðïñÿäëå?\nÓú îå ñàîåî?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ â ðïñÿäëå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œôäåòîï! Ëàëïå ïáìåãœåîéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óâïê òóàñšéê áñàó çäæó\nóåáÿ. Éäæí äïíïê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D03P11A/m03a1002.ssb</t>
+  </si>
+  <si>
+    <t>Вы сдали Дроузи в тюрячку</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZZZT! I am [CS:N]Magnezone[CR], the\nprimary officer in this region! ZZZT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZZZT! Thanks to you…</t>
+  </si>
+  <si>
+    <t>Магнезон</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have been able to arrest a\nwanted outlaw! ZZZT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZZZT! We owe you great thanks\nfor your cooperation! ZZZT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZZZT! We will send the reward\nto your guild. Thank you again! ZZZT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZZZT! Now come with us! ZZZT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Awww…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Azurill[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Marill[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waaaaah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Marill[CR]![K] It was so scary!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You OK, [CS:N]Azurill[CR]?[K] Are you hurt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'s fine. The little guy\'s not\nhurt at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'s fine. The little guy hasn\'t\nbeen harmed in any way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'s fine. The little guy\'s not\nhurt in any way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Really?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s a relief!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [CS:N]Azurill[CR]...[K][CS:N]Azurill[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m really glad for you guys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m glad you kids are happy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m truly happy for you two!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You did this all for us,\n[partner] and [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We won\'t forget what you did\nfor us.[K] Thank you so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come on, [CS:N]Azurill[CR]. You too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yup…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you very much![K] Thank you\nfor rescuing me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Really...[K] Really, thank you!</t>
+  </si>
+  <si>
+    <t>[CN]The Exploration Team Federation\n[CN]has sent a message...[W:30]</t>
+  </si>
+  <si>
+    <t>[CN][hero]\'s team was rewarded\n[CN]with an enlarged Treasure Bag![W:100]</t>
+  </si>
+  <si>
+    <t>[CN]You can now carry more\n[CN]items than you could before!</t>
+  </si>
+  <si>
+    <t>[CN]Wait...[K]\n[CN]There\'s one more message.</t>
+  </si>
+  <si>
+    <t>[CN]The Special Episode\n[CN]\"Bidoof\'s Wish\"\n[CN]has been unlocked![W:90]</t>
+  </si>
+  <si>
+    <t>[CN]To play a Special Episode,\n[CN]select it from the Episode List\n[CN]on the Top Menu.</t>
+  </si>
+  <si>
+    <t>[CN]If you would like to play the Special Episode,\n[CN]save your adventure progress, and\n[CN]return to the Top Menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БЗЗЗ! Я - [CS:N]Магнезон[CR], старший\nофицер этого региона! БЗЗЗ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БЗЗЗ! Благодаря вам...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам удалось арестовать\nразыскиваемого преступника! БЗЗЗ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БЗЗЗ! Мы очень благодарны вам\nза содействие! БЗЗЗ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БЗЗЗ! Мы отправим награду в\nвашу гильдию. Благодарим ещё раз! БЗЗЗ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БЗЗЗ! А теперь, идём с нами!\nБЗЗЗ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оххх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Азурилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Марилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уааааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Марилл[CR]![K] Мне было так страшно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты в порядке, [CS:N]Азурилл[CR]?[K] Не ранен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С ним всё в порядке.\nНа нём ни царапины.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С ним всё в порядке.\nЕму никто не навредил.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С ним всё в порядке.\nНа нём нет ни единой царапины.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Правда?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какая радость!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, [CS:N]Азурилл[CR]...[K] [CS:N]Азурилл[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я очень рад за вас, ребята.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так рад, что вы\nсчастливы, ребята!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я искренне рада за вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы сделали это всё ради нас,\n[partner] и [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы никогда этого не забудем.[K]\nСпасибо огромное.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай, [CS:N]Азурилл[CR]. Скажи спасибо.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо огромное![K] Спасибо, что\nспасли меня!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Большое...[K] Большущее вам\nспасибо!</t>
+  </si>
+  <si>
+    <t>[CN]Федерация Команд Исследователей\n[CN]прислала сообщение...[W:30]</t>
+  </si>
+  <si>
+    <t>[CN]Теперь вы сможете носить больше вещей!</t>
+  </si>
+  <si>
+    <t>[CN]Минутку...[K]\n[CN]Есть ещё одно сообщение.</t>
+  </si>
+  <si>
+    <t>[CN]Разблокирован Особый Эпизод\n[CN]\"Желание Бидуфа\"![W:90]</t>
+  </si>
+  <si>
+    <t>[CN]Чтобы сыграть в Особый Эпизод, выберите\n[CN]его из Списка Эпизодов в Главном Меню.</t>
+  </si>
+  <si>
+    <t>[CN]Если вы хотите сыграть в Особый Эпизод,\n[CN]сохраните своё приключение и вернитесь в\n[CN]Главное Меню.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÁÈÈÈ! Ÿ - [CS:N]Íàãîåèïî[CR], òóàñšéê\nïõéøåñ üóïãï ñåãéïîà! ÁÈÈÈ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÁÈÈÈ! Áìàãïäàñÿ âàí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí ôäàìïòû àñåòóïâàóû\nñàèúòëéâàåíïãï ðñåòóôðîéëà! ÁÈÈÈ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÁÈÈÈ! Íú ïœåîû áìàãïäàñîú âàí\nèà òïäåêòóâéå! ÁÈÈÈ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÁÈÈÈ! Íú ïóðñàâéí îàãñàäô â\nâàšô ãéìûäéý. Áìàãïäàñéí åþæ ñàè! ÁÈÈÈ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÁÈÈÈ! À óåðåñû, éäæí ò îàíé!\nÁÈÈÈ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïööö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Àèôñéìì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàñéìì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôààààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàñéìì[CR]![K] Íîå áúìï óàë òóñàšîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú â ðïñÿäëå, [CS:N]Àèôñéìì[CR]?[K] Îå ñàîåî?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò îéí âòæ â ðïñÿäëå.\nÎà îæí îé øàñàðéîú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò îéí âòæ â ðïñÿäëå.\nÅíô îéëóï îå îàâñåäéì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò îéí âòæ â ðïñÿäëå.\nÎà îæí îåó îé åäéîïê øàñàðéîú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñàâäà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëàÿ ñàäïòóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, [CS:N]Àèôñéìì[CR]...[K] [CS:N]Àèôñéìì[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïœåîû ñàä èà âàò, ñåáÿóà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë ñàä, œóï âú\nòœàòóìéâú, ñåáÿóà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ éòëñåîîå ñàäà èà âàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òäåìàìé üóï âòæ ñàäé îàò,\n[partner] é [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îéëïãäà üóïãï îå èàáôäåí.[K]\nÒðàòéáï ïãñïíîïå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê, [CS:N]Àèôñéìì[CR]. Òëàçé òðàòéáï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï ïãñïíîïå![K] Òðàòéáï, œóï\nòðàòìé íåîÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áïìûšïå...[K] Áïìûšôþåå âàí\nòðàòéáï!</t>
+  </si>
+  <si>
+    <t>[CN]Õåäåñàøéÿ Ëïíàîä Éòòìåäïâàóåìåê\n[CN]ðñéòìàìà òïïáþåîéå...[W:30]</t>
+  </si>
+  <si>
+    <t>[CN]Óåðåñû âú òíïçåóå îïòéóû áïìûšå âåþåê!</t>
+  </si>
+  <si>
+    <t>[CN]Íéîôóëô...[K]\n[CN]Åòóû åþæ ïäîï òïïáþåîéå.</t>
+  </si>
+  <si>
+    <t>[CN]Ñàèáìïëéñïâàî Ïòïáúê Üðéèïä\n[CN]\"Çåìàîéå Áéäôõà\"![W:90]</t>
+  </si>
+  <si>
+    <t>[CN]Œóïáú òúãñàóû â Ïòïáúê Üðéèïä, âúáåñéóå\n[CN]åãï éè Òðéòëà Üðéèïäïâ â Ãìàâîïí Íåîý.</t>
+  </si>
+  <si>
+    <t>[CN]Åòìé âú öïóéóå òúãñàóû â Ïòïáúê Üðéèïä,\n[CN]òïöñàîéóå òâïæ ðñéëìýœåîéå é âåñîéóåòû â\n[CN]Ãìàâîïå Íåîý.</t>
+  </si>
+  <si>
+    <t>Вы получаете ДЕНЬГИ.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/m03a1201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve gotten the bounty from\nOfficer [CS:N]Magnezone[CR] for the captured outlaw! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well done, you two! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here\'s your share for the job.[K]\nIt\'s yours to keep! ♪</t>
+  </si>
+  <si>
+    <t>[CN][hero]\'s team received\n[CN]the [CS:G]3[MP]000[CR][M:S0] bounty that was on\n[CN]the head of the captured outlaw!</t>
+  </si>
+  <si>
+    <t>[CN]However…</t>
+  </si>
+  <si>
+    <t>[CN]Because [CS:G]2[MP]700[CR][M:S0] of that\n[CN]is the guild\'s share…</t>
+  </si>
+  <si>
+    <t>[CN]That portion was withheld…</t>
+  </si>
+  <si>
+    <t>[CN]As a result,\n[CN][hero]\'s team…</t>
+  </si>
+  <si>
+    <t>[CN]Received only the\n[CN]remaining [CS:G]300[CR][M:S0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?! We get only this much?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?! This is all we get?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No way! This is all we get?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After all that hard work…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After all our effort…</t>
+  </si>
+  <si>
+    <t>82, 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]But of course![K] It\'s all part\nof the training!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And we expect just as much\neffort tomorrow![K] Hee-heeee! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urf…</t>
+  </si>
+  <si>
+    <t>132, 136, 140</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You know, it would make me\nhappy if our share was just a little bigger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'d be happy if our share of the\nreward was just a little bigger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It would be nice if they\'d give\nus a slightly bigger share of the reward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But that\'s all right.[K] We managed\nto rescue [CS:N]Azurill[CR].</t>
+  </si>
+  <si>
+    <t>175, 179, 183</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And it\'s all thanks to you,\n[hero]!</t>
+  </si>
+  <si>
+    <t>195, 199, 203</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Because you had that dream,\n[hero]…</t>
+  </si>
+  <si>
+    <t>209, 213, 217</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We learned about [CS:N]Azurill[CR]\'s\ntrouble in advance.</t>
+  </si>
+  <si>
+    <t>223, 227, 231</t>
+  </si>
+  <si>
+    <t>(It\'s true!)</t>
+  </si>
+  <si>
+    <t>243, 247</t>
+  </si>
+  <si>
+    <t>(I can\'t explain it, but...)</t>
+  </si>
+  <si>
+    <t>253, 257</t>
+  </si>
+  <si>
+    <t>(That first shout I heard from [CS:N]Azurill[CR]...)</t>
+  </si>
+  <si>
+    <t>(And that dream I had...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я получил награду от Офицера\n[CS:N]Магнезона[CR] за поимку негодяя! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отличная работа! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот ваша доля за выполненное\nзадание.[K] Вы заслужили! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Команда [hero]\n[CN]получает награду в [CS:G]3[MP]000[CR][M:S0]!</t>
+  </si>
+  <si>
+    <t>[CN]Однако...</t>
+  </si>
+  <si>
+    <t>[CN]Поскольку доля гильдии составляет\n[CN][CS:G]2[MP]700[CR][M:S0]...</t>
+  </si>
+  <si>
+    <t>[CN]Эта сумма была вычтена\n[CN]из вашей награды...</t>
+  </si>
+  <si>
+    <t>[CN]В итоге, ваша команда...</t>
+  </si>
+  <si>
+    <t>[CN]Получает всего лишь [CS:G]300[CR][M:S0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?!\nМы получили так мало?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?!\nИ это вся наша награда?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Быть не может!\nИ это вся наша награда?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> За такую непростую\nзадачу...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После того, что мы\nсделали...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ну, конечно же![K] Это ведь всё\nчасть ваших тренировок!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И завтра я ожидаю от вас таких\nже усилий, что и сегодня![K] Хи-хиии! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уфф...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Знаешь, будь наша доля\nнемножечко побольше, я был бы счастлив.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Было бы лучше, если наша\nдоля была бы чуточку побольше.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Было бы неплохо, если бы\nон давал нам долю чуточку побольше.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но ничего страшного.[K]\nНам удалось спасти [CS:N]Азурилла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И всё благодаря тебе,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Из-за твоего видения,\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы заранее узнали о том,\nчто [CS:N]Азурилл[CR] в опасности.</t>
+  </si>
+  <si>
+    <t>(Так и есть!)</t>
+  </si>
+  <si>
+    <t>(Я не могу объяснить, но...)</t>
+  </si>
+  <si>
+    <t>(Тот крик, что я слышал от [CS:N]Азурилла[CR]...)</t>
+  </si>
+  <si>
+    <t>(Тот крик, что я слышала от [CS:N]Азурилла[CR]...)</t>
+  </si>
+  <si>
+    <t>(И то видение...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïìôœéì îàãñàäô ïó Ïõéøåñà\n[CS:N]Íàãîåèïîà[CR] èà ðïéíëô îåãïäÿÿ! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóìéœîàÿ ñàáïóà! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó âàšà äïìÿ èà âúðïìîåîîïå\nèàäàîéå.[K] Âú èàòìôçéìé! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Ëïíàîäà [hero]\n[CN]ðïìôœàåó îàãñàäô â [CS:G]3[MP]000[CR][M:S0]!</t>
+  </si>
+  <si>
+    <t>[CN]Ïäîàëï...</t>
+  </si>
+  <si>
+    <t>[CN]Ðïòëïìûëô äïìÿ ãéìûäéé òïòóàâìÿåó\n[CN][CS:G]2[MP]700[CR][M:S0]...</t>
+  </si>
+  <si>
+    <t>[CN]Üóà òôííà áúìà âúœóåîà\n[CN]éè âàšåê îàãñàäú...</t>
+  </si>
+  <si>
+    <t>[CN]Â éóïãå, âàšà ëïíàîäà...</t>
+  </si>
+  <si>
+    <t>[CN]Ðïìôœàåó âòåãï ìéšû [CS:G]300[CR][M:S0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?!\nÍú ðïìôœéìé óàë íàìï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?!\nÉ üóï âòÿ îàšà îàãñàäà?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áúóû îå íïçåó!\nÉ üóï âòÿ îàšà îàãñàäà?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èà óàëôý îåðñïòóôý\nèàäàœô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå óïãï, œóï íú\nòäåìàìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Îô, ëïîåœîï çå![K] Üóï âåäû âòæ\nœàòóû âàšéö óñåîéñïâïë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É èàâóñà ÿ ïçéäàý ïó âàò óàëéö\nçå ôòéìéê, œóï é òåãïäîÿ![K] Öé-öééé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôõõ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàåšû, áôäû îàšà äïìÿ\nîåíîïçåœëï ðïáïìûšå, ÿ áúì áú òœàòóìéâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áúìï áú ìôœšå, åòìé îàšà\näïìÿ áúìà áú œôóïœëô ðïáïìûšå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áúìï áú îåðìïöï, åòìé áú\nïî äàâàì îàí äïìý œôóïœëô ðïáïìûšå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îéœåãï òóñàšîïãï.[K]\nÎàí ôäàìïòû òðàòóé [CS:N]Àèôñéììà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É âòæ áìàãïäàñÿ óåáå,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éè-èà óâïåãï âéäåîéÿ,\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú èàñàîåå ôèîàìé ï óïí,\nœóï [CS:N]Àèôñéìì[CR] â ïðàòîïòóé.</t>
+  </si>
+  <si>
+    <t>(Óàë é åòóû!)</t>
+  </si>
+  <si>
+    <t>(Ÿ îå íïãô ïáùÿòîéóû, îï...)</t>
+  </si>
+  <si>
+    <t>(Óïó ëñéë, œóï ÿ òìúšàì ïó [CS:N]Àèôñéììà[CR]...)</t>
+  </si>
+  <si>
+    <t>(Óïó ëñéë, œóï ÿ òìúšàìà ïó [CS:N]Àèôñéììà[CR]...)</t>
+  </si>
+  <si>
+    <t>(É óï âéäåîéå...)</t>
+  </si>
+  <si>
+    <t>После получения награды</t>
+  </si>
+  <si>
+    <t>(Both of these events...)</t>
+  </si>
+  <si>
+    <t>15, 19</t>
+  </si>
+  <si>
+    <t>(They took place in the future!)</t>
+  </si>
+  <si>
+    <t>25, 29</t>
+  </si>
+  <si>
+    <t>(Why was I able to see something like that?)</t>
+  </si>
+  <si>
+    <t>(What was that dream about?)</t>
+  </si>
+  <si>
+    <t>45, 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoops! My stomach growled!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! My stomach growled!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uh-oh! My stomach growled!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha ha ha! Your stomach growled\ntoo, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I guess we must be starved!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We must have worked up a\nbig appetite!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I guess we must be famished!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We were so focused on rescuing\n[CS:N]Azurill[CR] that I didn\'t notice at all!</t>
+  </si>
+  <si>
+    <t>130, 134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But now I\'m even hungrier!</t>
+  </si>
+  <si>
+    <t>170, 174</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go get dinner,\n[hero]!</t>
+  </si>
+  <si>
+    <t>(Оба этих события...)</t>
+  </si>
+  <si>
+    <t>(Произошли в будущем!)</t>
+  </si>
+  <si>
+    <t>(Почему я смог видеть нечто подобное?)</t>
+  </si>
+  <si>
+    <t>(Почему я смогла видеть нечто подобное?)</t>
+  </si>
+  <si>
+    <t>(Что значило это видение?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Упс! У меня заурчал\nживотик!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! У меня заурчал животик!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой-ёй! У меня заурчал\nживотик!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха ха ха! Твой животик тоже\nурчит, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть, мы сильно\nпроголодались!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наверное, мы нагуляли\nаппетит!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть, мы сильно\nизголодались!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы так зациклились на\nспасении [CS:N]Азурилла[CR], что я даже этого и не\nзаметил!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы так зациклились на\nспасении [CS:N]Азурилла[CR], что я даже этого и не\nзаметила!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но теперь я ещё больше\nпроголодался!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но теперь я ещё больше\nпроголодалась!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём ужинать, [hero]!</t>
+  </si>
+  <si>
+    <t>(Ïáà üóéö òïáúóéÿ...)</t>
+  </si>
+  <si>
+    <t>(Ðñïéèïšìé â áôäôþåí!)</t>
+  </si>
+  <si>
+    <t>(Ðïœåíô ÿ òíïã âéäåóû îåœóï ðïäïáîïå?)</t>
+  </si>
+  <si>
+    <t>(Ðïœåíô ÿ òíïãìà âéäåóû îåœóï ðïäïáîïå?)</t>
+  </si>
+  <si>
+    <t>(Œóï èîàœéìï üóï âéäåîéå?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôðò! Ô íåîÿ èàôñœàì\nçéâïóéë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Ô íåîÿ èàôñœàì çéâïóéë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê-æê! Ô íåîÿ èàôñœàì\nçéâïóéë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà öà öà! Óâïê çéâïóéë óïçå\nôñœéó, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû, íú òéìûîï\nðñïãïìïäàìéòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàâåñîïå, íú îàãôìÿìé\nàððåóéó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû, íú òéìûîï\néèãïìïäàìéòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óàë èàøéëìéìéòû îà\nòðàòåîéé [CS:N]Àèôñéììà[CR], œóï ÿ äàçå üóïãï é îå\nèàíåóéì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óàë èàøéëìéìéòû îà\nòðàòåîéé [CS:N]Àèôñéììà[CR], œóï ÿ äàçå üóïãï é îå\nèàíåóéìà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï óåðåñû ÿ åþæ áïìûšå\nðñïãïìïäàìòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï óåðåñû ÿ åþæ áïìûšå\nðñïãïìïäàìàòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí ôçéîàóû, [hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07C/m03a1302.ssb</t>
+  </si>
+  <si>
+    <t>Вы обсуждаете прошедший день</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa! That lightning\'s intense!</t>
+  </si>
+  <si>
+    <t>30, 34, 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It looks like it\'s really\nstormy tonight…</t>
+  </si>
+  <si>
+    <t>47, 51, 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wait a second!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hold on!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That reminds me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You know the night before we\nmet, [hero]?</t>
+  </si>
+  <si>
+    <t>90, 94, 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was storming that night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I found you out cold on the\nbeach the day after that stormy night,\n[hero].</t>
+  </si>
+  <si>
+    <t>118, 122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So do you remember anything\nabout being out cold on the beach?[K] Can you\nremember anything at all?</t>
+  </si>
+  <si>
+    <t>(I wonder...[K] Hmm...)</t>
+  </si>
+  <si>
+    <t>(There was a storm... But how did I end up\nunconscious there?)</t>
+  </si>
+  <si>
+    <t>(Nope. I can\'t remember a thing.)</t>
+  </si>
+  <si>
+    <t>166, 170</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I guess it won\'t be that easy.</t>
+  </si>
+  <si>
+    <t>178, 182, 186</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But that\'s all right. Just try\nremembering a little at a time.</t>
+  </si>
+  <si>
+    <t>192, 196, 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get up early again\ntomorrow. Let\'s get some sleep.</t>
+  </si>
+  <si>
+    <t>216, 220, 224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ого! Какая сильная гроза!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, сегодня всю ночь\nбудет бушевать буря...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Секундочку!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Погоди-ка!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кстати говоря!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Помнишь ту ночь, после\nкоторой мы встретились, [hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тогда тоже была буря.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После той ненастной ночи, я\nнашёл тебя без сознания на пляже,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После той ненастной ночи, я\nнашла тебя без сознания на пляже,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Помнишь ли ты что-нибудь до\nтого, как ты очнулся, замерзая на пляже?[K]\nХотя бы немного?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Помнишь ли ты что-нибудь до\nтого, как ты очнулась, замерзая на пляже?[K]\nХотя бы немного?</t>
+  </si>
+  <si>
+    <t>(Надо подумать...[K] Хмм...)</t>
+  </si>
+  <si>
+    <t>(Буря действительно была... Но как я\nочутился там без сознания?)</t>
+  </si>
+  <si>
+    <t>(Буря действительно была... Но как я\nочутилась там без сознания?)</t>
+  </si>
+  <si>
+    <t>(Нет. Я не могу ничего вспомнить.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, это не так то\nпросто.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но ничего. Со временем,\nпонемногу, но ты всё вспомнишь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Завтра нам снова рано\nвставать. Нужно ложиться спать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïãï! Ëàëàÿ òéìûîàÿ ãñïèà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, òåãïäîÿ âòý îïœû\náôäåó áôšåâàóû áôñÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåëôîäïœëô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïãïäé-ëà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëòóàóé ãïâïñÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïíîéšû óô îïœû, ðïòìå\nëïóïñïê íú âòóñåóéìéòû, [hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïãäà óïçå áúìà áôñÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå óïê îåîàòóîïê îïœé, ÿ\nîàšæì óåáÿ áåè òïèîàîéÿ îà ðìÿçå,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå óïê îåîàòóîïê îïœé, ÿ\nîàšìà óåáÿ áåè òïèîàîéÿ îà ðìÿçå,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïíîéšû ìé óú œóï-îéáôäû äï\nóïãï, ëàë óú ïœîôìòÿ, èàíåñèàÿ îà ðìÿçå?[K]\nÖïóÿ áú îåíîïãï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïíîéšû ìé óú œóï-îéáôäû äï\nóïãï, ëàë óú ïœîôìàòû, èàíåñèàÿ îà ðìÿçå?[K]\nÖïóÿ áú îåíîïãï?</t>
+  </si>
+  <si>
+    <t>(Îàäï ðïäôíàóû...[K] Öíí...)</t>
+  </si>
+  <si>
+    <t>(Áôñÿ äåêòóâéóåìûîï áúìà... Îï ëàë ÿ\nïœôóéìòÿ óàí áåè òïèîàîéÿ?)</t>
+  </si>
+  <si>
+    <t>(Áôñÿ äåêòóâéóåìûîï áúìà... Îï ëàë ÿ\nïœôóéìàòû óàí áåè òïèîàîéÿ?)</t>
+  </si>
+  <si>
+    <t>(Îåó. Ÿ îå íïãô îéœåãï âòðïíîéóû.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, üóï îå óàë óï\nðñïòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îéœåãï. Òï âñåíåîåí,\nðïîåíîïãô, îï óú âòæ âòðïíîéšû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàâóñà îàí òîïâà ñàîï\nâòóàâàóû. Îôçîï ìïçéóûòÿ òðàóû.</t>
+  </si>
+  <si>
+    <t>Полуночный разговор</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07C/m03a1304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you still awake,\n[hero]?</t>
+  </si>
+  <si>
+    <t>43, 47, 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve been thinking about this\nsince it happened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve been thinking about it since\nit happened.</t>
+  </si>
+  <si>
+    <t>57, 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That strange dream you had,\n[hero]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maybe it has to do with you\npersonally, [hero].</t>
+  </si>
+  <si>
+    <t>87, 91, 95</t>
+  </si>
+  <si>
+    <t>(Huh?)</t>
+  </si>
+  <si>
+    <t>103, 107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s just the feeling that I get.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s just the feeling I get.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t quite say why.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I sure don\'t know any other\n[c_kind:PLAYER] who dreams about the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And I\'ve never heard of a human\nsuddenly turning into a Pokémon either.</t>
+  </si>
+  <si>
+    <t>146, 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s why I think those two\nevents are connected.</t>
+  </si>
+  <si>
+    <t>160, 164, 168</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I just can\'t shake that feeling.</t>
+  </si>
+  <si>
+    <t>174, 178, 182</t>
+  </si>
+  <si>
+    <t>(The key to unlocking my memory...)</t>
+  </si>
+  <si>
+    <t>190, 194</t>
+  </si>
+  <si>
+    <t>(Was it in that dream?)</t>
+  </si>
+  <si>
+    <t>200, 204</t>
+  </si>
+  <si>
+    <t>(But even if that were true...)</t>
+  </si>
+  <si>
+    <t>211, 215</t>
+  </si>
+  <si>
+    <t>(How does it relate to anything else?)</t>
+  </si>
+  <si>
+    <t>222, 226</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know what you were like\nas a human, [hero]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I\'m sure you were a\ngood person.</t>
+  </si>
+  <si>
+    <t>244, 248</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After all, [hero], it was\nyour dream that helped us catch that\nbad Pokémon.</t>
+  </si>
+  <si>
+    <t>259, 263, 267</t>
+  </si>
+  <si>
+    <t>(Bad Pokémon, huh...)</t>
+  </si>
+  <si>
+    <t>276, 280</t>
+  </si>
+  <si>
+    <t>(Oh! That reminds me of what [CS:N]Chatot[CR] said.)</t>
+  </si>
+  <si>
+    <t>286, 290</t>
+  </si>
+  <si>
+    <t>(That the growing number of bad Pokémon has\nbeen caused by time going out of whack.)</t>
+  </si>
+  <si>
+    <t>296, 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You know…</t>
+  </si>
+  <si>
+    <t>308, 312, 316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time is getting messed up,\nbit by bit, all over the world.</t>
+  </si>
+  <si>
+    <t>322, 326, 330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No one seems to know why.</t>
+  </si>
+  <si>
+    <t>336, 340, 344</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But everyone believes that the\nTime Gears are somehow involved.</t>
+  </si>
+  <si>
+    <t>351, 355, 359</t>
+  </si>
+  <si>
+    <t>(Huh?[K] Time Gears?)</t>
+  </si>
+  <si>
+    <t>368, 372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They say Time Gears are hidden\nin secret places around the world.</t>
+  </si>
+  <si>
+    <t>380, 384, 388</t>
+  </si>
+  <si>
+    <t>132, 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Слушай, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты еще не спишь,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я всё думал о том, что\nслучилось.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я всё думала о том, что\nслучилось.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Твоё странное видение,\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Возможно, оно как то\nсвязано лично с тобой, [hero].</t>
+  </si>
+  <si>
+    <t>(Что?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это просто такое ощущение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так я это ощущаю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не могу сказать, почему.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не слышал о том, что\n[c_kind:PLAYER] может видеть будущее.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не слышала о том, что\n[c_kind:PLAYER] может видеть будущее.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И тем более я никогда не\nслышал о том, что человек становился\nПокемоном.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И тем более я никогда не\nслышала о том, что человек становился\nПокемоном.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, я думаю, что эти\nдва события взаимосвязаны.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я просто не могу отделаться\nот этой мысли.</t>
+  </si>
+  <si>
+    <t>(Ключ к моим воспоминаниям...)</t>
+  </si>
+  <si>
+    <t>(Был в моём видении?)</t>
+  </si>
+  <si>
+    <t>(Но даже если это и так...)</t>
+  </si>
+  <si>
+    <t>(Как это связано с чем-либо?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю, каким человеком\nты был, [hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю, каким человеком\nты была, [hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я уверен, что\nты - хороший человек.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я уверена, что\nты - хороший человек.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В конце концов,\n[hero], именно благодаря твоему\nвидению, мы поймали плохого Покемона.</t>
+  </si>
+  <si>
+    <t>(Плохого Покемона, да...)</t>
+  </si>
+  <si>
+    <t>(Что растущее количество негодяев\nпроисходит из-за вышедшего из-под\nконтроля времени.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Знаешь...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Время выходит из-под\nконтроля по всему миру, крупица за\nкрупицей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И никто не знает почему.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но все уверены, что это\nсвязано с Шестернями Времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что Шестерни\nВремени скрыты в самых потаённых уголках\nмира.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òìôšàê, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú åþå îå òðéšû,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòæ äôíàì ï óïí, œóï\nòìôœéìïòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòæ äôíàìà ï óïí, œóï\nòìôœéìïòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óâïæ òóñàîîïå âéäåîéå,\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïèíïçîï, ïîï ëàë óï\nòâÿèàîï ìéœîï ò óïáïê, [hero].</t>
+  </si>
+  <si>
+    <t>(Œóï?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ðñïòóï óàëïå ïþôþåîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë ÿ üóï ïþôþàý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå íïãô òëàèàóû, ðïœåíô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå òìúšàì ï óïí, œóï\n[c_kind:PLAYER] íïçåó âéäåóû áôäôþåå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå òìúšàìà ï óïí, œóï\n[c_kind:PLAYER] íïçåó âéäåóû áôäôþåå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É óåí áïìåå ÿ îéëïãäà îå\nòìúšàì ï óïí, œóï œåìïâåë òóàîïâéìòÿ\nÐïëåíïîïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É óåí áïìåå ÿ îéëïãäà îå\nòìúšàìà ï óïí, œóï œåìïâåë òóàîïâéìòÿ\nÐïëåíïîïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, ÿ äôíàý, œóï üóé\näâà òïáúóéÿ âèàéíïòâÿèàîú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñïòóï îå íïãô ïóäåìàóûòÿ\nïó üóïê íúòìé.</t>
+  </si>
+  <si>
+    <t>(Ëìýœ ë íïéí âïòðïíéîàîéÿí...)</t>
+  </si>
+  <si>
+    <t>(Áúì â íïæí âéäåîéé?)</t>
+  </si>
+  <si>
+    <t>(Îï äàçå åòìé üóï é óàë...)</t>
+  </si>
+  <si>
+    <t>(Ëàë üóï òâÿèàîï ò œåí-ìéáï?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý, ëàëéí œåìïâåëïí\nóú áúì, [hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý, ëàëéí œåìïâåëïí\nóú áúìà, [hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ ôâåñåî, œóï\nóú - öïñïšéê œåìïâåë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ ôâåñåîà, œóï\nóú - öïñïšéê œåìïâåë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ëïîøå ëïîøïâ,\n[hero], éíåîîï áìàãïäàñÿ óâïåíô\nâéäåîéý, íú ðïêíàìé ðìïöïãï Ðïëåíïîà.</t>
+  </si>
+  <si>
+    <t>(Ðìïöïãï Ðïëåíïîà, äà...)</t>
+  </si>
+  <si>
+    <t>(Œóï ñàòóôþåå ëïìéœåòóâï îåãïäÿåâ\nðñïéòöïäéó éè-èà âúšåäšåãï éè-ðïä\nëïîóñïìÿ âñåíåîé.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàåšû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âñåíÿ âúöïäéó éè-ðïä\nëïîóñïìÿ ðï âòåíô íéñô, ëñôðéøà èà\nëñôðéøåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É îéëóï îå èîàåó ðïœåíô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï âòå ôâåñåîú, œóï üóï\nòâÿèàîï ò Šåòóåñîÿíé Âñåíåîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï Šåòóåñîé\nÂñåíåîé òëñúóú â òàíúö ðïóàæîîúö ôãïìëàö\níéñà.</t>
+  </si>
+  <si>
+    <t>(Ой! [CS:N]Чатот[CR] упоминал об этом.)</t>
+  </si>
+  <si>
+    <t>(Ïê! [CS:N]Œàóïó[CR] ôðïíéîàì ïá üóïí.)</t>
+  </si>
+  <si>
+    <t>(Что?[K] Шестерни Времени?)</t>
+  </si>
+  <si>
+    <t>(Œóï?[K] Šåòóåñîé Âñåíåîé?)</t>
+  </si>
+  <si>
+    <t>Шестерня времени в лесу</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Like in a forest…</t>
+  </si>
+  <si>
+    <t>19, 23, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как та, что в лесу…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óà, œóï â ìåòô…</t>
+  </si>
+  <si>
+    <t>SCRIPT/V03P06A/m03a1305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Or at a lake in an underground\ncavern…</t>
+  </si>
+  <si>
+    <t>SCRIPT/V03P07A/m03a1306.ssb</t>
+  </si>
+  <si>
+    <t>Шестерня времени в поздемном озере</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Или близ подземного озера…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éìé áìéè ðïäèåíîïãï ïèåñà…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve even heard that there is\na hidden altar inside a volcano.</t>
+  </si>
+  <si>
+    <t>Шестерня времени внутри вулкана</t>
+  </si>
+  <si>
+    <t>SCRIPT/V03P08A/m03a1307.ssb</t>
+  </si>
+  <si>
+    <t>19, 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал, что она есть\nдаже внутри вулкана.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышала, что она есть\nдаже внутри вулкана.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì, œóï ïîà åòóû\näàçå âîôóñé âôìëàîà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàìà, œóï ïîà åòóû\näàçå âîôóñé âôìëàîà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At the center of such places…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is what\'s known as a Time Gear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time Gears serve a very\nimportant function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Each one protects time and keeps\ntime flowing properly in its region.</t>
+  </si>
+  <si>
+    <t>О шестерне времени</t>
+  </si>
+  <si>
+    <t>SCRIPT/V03P09A/m03a1308.ssb</t>
+  </si>
+  <si>
+    <t>16, 20, 24</t>
+  </si>
+  <si>
+    <t>44, 48, 52</t>
+  </si>
+  <si>
+    <t>58, 62, 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В центре таких мест...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> находится Шестерня Времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шестерни Времени очень\nважны.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Каждая из них оберегает\nвремя и выравнивает его поток в пределах\nсвоего местоположения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â øåîóñå óàëéö íåòó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> îàöïäéóòÿ Šåòóåñîÿ Âñåíåîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Šåòóåñîé Âñåíåîé ïœåîû\nâàçîú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàçäàÿ éè îéö ïáåñåãàåó\nâñåíÿ é âúñàâîéâàåó åãï ðïóïë â ðñåäåìàö\nòâïåãï íåòóïðïìïçåîéÿ.</t>
+  </si>
+  <si>
+    <t>О возможной утрате шестерни времени</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...what happens if a region\nloses its Time Gear?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07C/m03a1311.ssb</t>
+  </si>
+  <si>
+    <t>28, 32, 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но... Что случится, если\nв одном из таких мест пропадёт Шестерня\nВремени?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï... Œóï òìôœéóòÿ, åòìé\nâ ïäîïí éè óàëéö íåòó ðñïðàäæó Šåòóåñîÿ\nÂñåíåîé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t really know the answer\nto that question.</t>
+  </si>
+  <si>
+    <t>SCRIPT/V03P11A/m03a1312.ssb</t>
+  </si>
+  <si>
+    <t>24, 28, 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не совсем знаю ответ на\nэтот вопрос.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå òïâòåí èîàý ïóâåó îà\nüóïó âïðñïò.</t>
+  </si>
+  <si>
+    <t>Шестерёнка или жизнь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/V03P06A/m03a1313.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But my guess is that if a Time\nGear is removed from a region…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The flow of time in that region\nwill probably stop too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s why everyone makes sure\nnever to disturb the Time Gears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone has long been certain\nthat some kind of disaster would strike.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So everyone stays away from\nthe Time Gears and doesn\'t tamper with them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Even the most hardened criminal\nPokémon know to avoid messing with them.</t>
+  </si>
+  <si>
+    <t>49, 53, 57</t>
+  </si>
+  <si>
+    <t>63, 67, 71</t>
+  </si>
+  <si>
+    <t>116, 120, 124</t>
+  </si>
+  <si>
+    <t>130, 134, 138</t>
+  </si>
+  <si>
+    <t>144, 148, 152</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я думаю, что если Шестерня\nВремени пропадёт...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> То поток времени в том\nместе, где она была, остановится.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно поэтому никто не\nтрогает Шестерни Времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все держатся подальше от\nШестерней Времени и не пытаются их\nзабрать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И даже самые отпетые\nПокемоны-негодяи не лезут к ним.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äôíàý, œóï åòìé Šåòóåñîÿ\nÂñåíåîé ðñïðàäæó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óï ðïóïë âñåíåîé â óïí\níåòóå, ãäå ïîà áúìà, ïòóàîïâéóòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï ðïüóïíô îéëóï îå\nóñïãàåó Šåòóåñîé Âñåíåîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå äåñçàóòÿ ðïäàìûšå ïó\nŠåòóåñîåê Âñåíåîé é îå ðúóàýóòÿ éö\nèàáñàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É äàçå òàíúå ïóðåóúå\nÐïëåíïîú-îåãïäÿé îå ìåèôó ë îéí.</t>
+  </si>
+  <si>
+    <t>Гровайл крадёт Шестерню</t>
+  </si>
+  <si>
+    <t>SCRIPT/V03P12A/m03a1314.ssb</t>
+  </si>
+  <si>
+    <t>Гровайл</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do my eyes deceive me?[K] Could it be...?[K]\nYes, it is!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve finally found it![K] A Time Gear!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K]this is only the first of many…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мои глаза меня подводят?[K]\nНеужели это?..[K] Да, это она!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наконец-то я нашёл её![K] Шестерню\nВремени!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] Это только одна из многих...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïé ãìàèà íåîÿ ðïäâïäÿó?[K]\nÎåôçåìé üóï?..[K] Äà, üóï ïîà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàëïîåø-óï ÿ îàšæì åæ![K] Šåòóåñîý\nÂñåíåîé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Üóï óïìûëï ïäîà éè íîïãéö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все уже давно пребывают в\nуверенности, что может произойти какая-то\nкатастрофа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå ôçå äàâîï ðñåáúâàýó â\nôâåñåîîïòóé, œóï íïçåó ðñïéèïêóé ëàëàÿ-óï\nëàóàòóñïõà.</t>
+  </si>
+  <si>
+    <t>Чатот даёт вам новое поручение</t>
+  </si>
+  <si>
+    <t>Гровайл бежит куда бежит зачем он это делает?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/c00a1501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, you two! ♪[K] Let me give you\nyour assignment for today…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Look up jobs on the Job Bulletin\nBoard and the Outlaw Notice Board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do the listed jobs. That will do\nfor today! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Understood? No shirking your\nwork, OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well? If you understand, get\non with it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, вы двое! ♪[K] Вот что вам нужно\nсегодня делать...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выберите себе задания с Доски\nОбъявлений и Доски Разыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выполните взятые задания. Этого\nвполне хватит! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё поняли? Не увиливаем от\nработы, верно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну? Если всё поняли, то за дело!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, âú äâïå! ♪[K] Âïó œóï âàí îôçîï\nòåãïäîÿ äåìàóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúáåñéóå òåáå èàäàîéÿ ò Äïòëé\nÏáùÿâìåîéê é Äïòëé Ñàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúðïìîéóå âèÿóúå èàäàîéÿ. Üóïãï\nâðïìîå öâàóéó! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ ðïîÿìé? Îå ôâéìéâàåí ïó\nñàáïóú, âåñîï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô? Åòìé âòæ ðïîÿìé, óï èà äåìï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот ведь! Я же сказал, что отведу\nтебя домой сразу после того как\nсделаешь то, что тебя просят!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó âåäû! Ÿ çå òëàèàì, œóï ïóâåäô\nóåáÿ äïíïê òñàèô ðïòìå óïãï ëàë\nòäåìàåšû óï, œóï óåáÿ ðñïòÿó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Можете показать мне где она?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçåóå ðïëàèàóû íîå ãäå ïîà?</t>
+  </si>
+  <si>
+    <t>[CN]Ваша команда получает более вместительную\n[CN]Сумку для Ценностей![W:100]</t>
+  </si>
+  <si>
+    <t>[CN]Âàšà ëïíàîäà ðïìôœàåó áïìåå âíåòóéóåìûîôý\n[CN]Òôíëô äìÿ Øåîîïòóåê![W:100]</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +5939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3073,7 +6103,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3356,10 +6404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F277" sqref="F277"/>
+    <sheetView tabSelected="1" topLeftCell="A575" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C579" sqref="C579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7905,100 +10953,5174 @@
       <c r="A272" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="B272" s="55" t="s">
+      <c r="B272" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="D272" s="14" t="s">
+      <c r="D272" s="17" t="s">
         <v>845</v>
       </c>
-      <c r="E272" s="14" t="s">
+      <c r="E272" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="F272" s="14" t="s">
+      <c r="F272" s="18" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A273" s="27"/>
-      <c r="B273" s="55"/>
-      <c r="C273" s="13" t="s">
+      <c r="B273" s="28"/>
+      <c r="C273" s="24" t="s">
         <v>879</v>
       </c>
-      <c r="D273" s="14" t="s">
+      <c r="D273" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="E273" s="14" t="s">
+      <c r="E273" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="F273" s="14" t="s">
+      <c r="F273" s="26" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A274" s="27"/>
-      <c r="B274" s="55"/>
-      <c r="C274" s="13" t="s">
+      <c r="B274" s="28"/>
+      <c r="C274" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D274" s="14" t="s">
+      <c r="D274" s="25" t="s">
         <v>874</v>
       </c>
-      <c r="E274" s="14" t="s">
+      <c r="E274" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="F274" s="14" t="s">
+      <c r="F274" s="26" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A275" s="27"/>
-      <c r="C275" s="13">
+      <c r="B275" s="24"/>
+      <c r="C275" s="24">
         <v>91</v>
       </c>
-      <c r="D275" s="14" t="s">
+      <c r="D275" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="E275" s="14" t="s">
+      <c r="E275" s="25" t="s">
         <v>883</v>
       </c>
-      <c r="F275" s="14" t="s">
+      <c r="F275" s="26" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A276" s="27"/>
-      <c r="C276" s="13">
+      <c r="B276" s="24"/>
+      <c r="C276" s="24">
         <v>95</v>
       </c>
-      <c r="D276" s="14" t="s">
+      <c r="D276" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="E276" s="14" t="s">
+      <c r="E276" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="F276" s="14" t="s">
+      <c r="F276" s="26" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A277" s="55"/>
-      <c r="C277" s="13">
+    <row r="277" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="31"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20">
         <v>99</v>
       </c>
-      <c r="D277" s="14" t="s">
+      <c r="D277" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="E277" s="14" t="s">
+      <c r="E277" s="21" t="s">
         <v>883</v>
       </c>
-      <c r="F277" s="14" t="s">
+      <c r="F277" s="22" t="s">
         <v>887</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A278" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="C278" s="16">
+        <v>10</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="E278" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="F278" s="18" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="35"/>
+      <c r="B279" s="24"/>
+      <c r="C279" s="24">
+        <v>14</v>
+      </c>
+      <c r="D279" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="E279" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="F279" s="26" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="35"/>
+      <c r="B280" s="24"/>
+      <c r="C280" s="24">
+        <v>26</v>
+      </c>
+      <c r="D280" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="E280" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="F280" s="26" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B281" s="24"/>
+      <c r="C281" s="24">
+        <v>31</v>
+      </c>
+      <c r="D281" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="E281" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="F281" s="26" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="29"/>
+      <c r="B282" s="24"/>
+      <c r="C282" s="24">
+        <v>34</v>
+      </c>
+      <c r="D282" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="E282" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="F282" s="26" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="19"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="20">
+        <v>37</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="E283" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="F283" s="22" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C284" s="16">
+        <v>8</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="E284" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="F284" s="18" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B285" s="24"/>
+      <c r="C285" s="24">
+        <v>11</v>
+      </c>
+      <c r="D285" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="E285" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="F285" s="26" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="29"/>
+      <c r="B286" s="24"/>
+      <c r="C286" s="24">
+        <v>36</v>
+      </c>
+      <c r="D286" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="E286" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="F286" s="26" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="27"/>
+      <c r="B287" s="28"/>
+      <c r="C287" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="D287" s="25" t="s">
+        <v>914</v>
+      </c>
+      <c r="E287" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="F287" s="26" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A288" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B288" s="24"/>
+      <c r="C288" s="24">
+        <v>73</v>
+      </c>
+      <c r="D288" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="E288" s="25" t="s">
+        <v>941</v>
+      </c>
+      <c r="F288" s="26" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A289" s="27"/>
+      <c r="B289" s="24"/>
+      <c r="C289" s="24">
+        <v>80</v>
+      </c>
+      <c r="D289" s="25" t="s">
+        <v>917</v>
+      </c>
+      <c r="E289" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="F289" s="26" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="27"/>
+      <c r="B290" s="24"/>
+      <c r="C290" s="24">
+        <v>84</v>
+      </c>
+      <c r="D290" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="E290" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="F290" s="26" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A291" s="23"/>
+      <c r="B291" s="24"/>
+      <c r="C291" s="24">
+        <v>88</v>
+      </c>
+      <c r="D291" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="E291" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="F291" s="26" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B292" s="24"/>
+      <c r="C292" s="24">
+        <v>94</v>
+      </c>
+      <c r="D292" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="E292" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="F292" s="26" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="29" t="s">
+        <v>922</v>
+      </c>
+      <c r="B293" s="24"/>
+      <c r="C293" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="D293" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="E293" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="F293" s="26" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="27"/>
+      <c r="B294" s="28"/>
+      <c r="C294" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="D294" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="E294" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="F294" s="26" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B295" s="24"/>
+      <c r="C295" s="24">
+        <v>182</v>
+      </c>
+      <c r="D295" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="E295" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="F295" s="26" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="27"/>
+      <c r="B296" s="28"/>
+      <c r="C296" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="D296" s="25" t="s">
+        <v>927</v>
+      </c>
+      <c r="E296" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="F296" s="26" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A297" s="27"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="49">
+        <v>225</v>
+      </c>
+      <c r="D297" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="E297" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="F297" s="26" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A298" s="27"/>
+      <c r="B298" s="28"/>
+      <c r="C298" s="50">
+        <v>229</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="E298" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="F298" s="26" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="27"/>
+      <c r="B299" s="28"/>
+      <c r="C299" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="D299" s="25" t="s">
+        <v>930</v>
+      </c>
+      <c r="E299" s="25" t="s">
+        <v>952</v>
+      </c>
+      <c r="F299" s="26" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B300" s="24"/>
+      <c r="C300" s="24">
+        <v>267</v>
+      </c>
+      <c r="D300" s="25" t="s">
+        <v>932</v>
+      </c>
+      <c r="E300" s="25" t="s">
+        <v>953</v>
+      </c>
+      <c r="F300" s="26" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="29"/>
+      <c r="B301" s="24"/>
+      <c r="C301" s="24">
+        <v>270</v>
+      </c>
+      <c r="D301" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="E301" s="25" t="s">
+        <v>954</v>
+      </c>
+      <c r="F301" s="26" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A302" s="29"/>
+      <c r="B302" s="24"/>
+      <c r="C302" s="24">
+        <v>273</v>
+      </c>
+      <c r="D302" s="25" t="s">
+        <v>934</v>
+      </c>
+      <c r="E302" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="F302" s="26" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="32"/>
+      <c r="B303" s="33"/>
+      <c r="C303" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="D303" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="E303" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="F303" s="22" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A304" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="B304" s="16" t="s">
+        <v>977</v>
+      </c>
+      <c r="C304" s="16">
+        <v>24</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="E304" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B305" s="24"/>
+      <c r="C305" s="24">
+        <v>27</v>
+      </c>
+      <c r="D305" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="E305" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="F305" s="26" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="29"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="24">
+        <v>88</v>
+      </c>
+      <c r="D306" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="E306" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="F306" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A307" s="29"/>
+      <c r="B307" s="24"/>
+      <c r="C307" s="24">
+        <v>164</v>
+      </c>
+      <c r="D307" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="E307" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="F307" s="26" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="19"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20">
+        <v>167</v>
+      </c>
+      <c r="D308" s="21" t="s">
+        <v>983</v>
+      </c>
+      <c r="E308" s="21" t="s">
+        <v>988</v>
+      </c>
+      <c r="F308" s="22" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="30" t="s">
+        <v>995</v>
+      </c>
+      <c r="B309" s="34"/>
+      <c r="C309" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="E309" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F309" s="18" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="29" t="s">
+        <v>922</v>
+      </c>
+      <c r="B310" s="24"/>
+      <c r="C310" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="D310" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E310" s="25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F310" s="26" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="27"/>
+      <c r="B311" s="28"/>
+      <c r="C311" s="24" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D311" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="E311" s="25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F311" s="26" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B312" s="24"/>
+      <c r="C312" s="24">
+        <v>101</v>
+      </c>
+      <c r="D312" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E312" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F312" s="26" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="29"/>
+      <c r="B313" s="24"/>
+      <c r="C313" s="24">
+        <v>104</v>
+      </c>
+      <c r="D313" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E313" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F313" s="26" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A314" s="29"/>
+      <c r="B314" s="45"/>
+      <c r="C314" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D314" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E314" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F314" s="26" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="29"/>
+      <c r="B315" s="28"/>
+      <c r="C315" s="24">
+        <v>152</v>
+      </c>
+      <c r="D315" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E315" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F315" s="26" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="29"/>
+      <c r="B316" s="24"/>
+      <c r="C316" s="24">
+        <v>181</v>
+      </c>
+      <c r="D316" s="25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E316" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F316" s="26" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="27"/>
+      <c r="B317" s="24"/>
+      <c r="C317" s="24">
+        <v>188</v>
+      </c>
+      <c r="D317" s="25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E317" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F317" s="26" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="27"/>
+      <c r="B318" s="24"/>
+      <c r="C318" s="24">
+        <v>192</v>
+      </c>
+      <c r="D318" s="25" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E318" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F318" s="26" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="23"/>
+      <c r="B319" s="24"/>
+      <c r="C319" s="24">
+        <v>196</v>
+      </c>
+      <c r="D319" s="25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E319" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F319" s="26" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="27"/>
+      <c r="B320" s="24"/>
+      <c r="C320" s="24">
+        <v>217</v>
+      </c>
+      <c r="D320" s="25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E320" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F320" s="26" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="27"/>
+      <c r="B321" s="28"/>
+      <c r="C321" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D321" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E321" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F321" s="26" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="27"/>
+      <c r="B322" s="28"/>
+      <c r="C322" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D322" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E322" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F322" s="26" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A323" s="27"/>
+      <c r="B323" s="24"/>
+      <c r="C323" s="24">
+        <v>280</v>
+      </c>
+      <c r="D323" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E323" s="25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F323" s="26" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="27"/>
+      <c r="B324" s="24"/>
+      <c r="C324" s="24">
+        <v>284</v>
+      </c>
+      <c r="D324" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E324" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F324" s="26" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="23"/>
+      <c r="B325" s="24"/>
+      <c r="C325" s="24">
+        <v>288</v>
+      </c>
+      <c r="D325" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E325" s="25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F325" s="26" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B326" s="24"/>
+      <c r="C326" s="24">
+        <v>330</v>
+      </c>
+      <c r="D326" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E326" s="25" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F326" s="26" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="19"/>
+      <c r="B327" s="20"/>
+      <c r="C327" s="20">
+        <v>333</v>
+      </c>
+      <c r="D327" s="21" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E327" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F327" s="22" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A328" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B328" s="55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C328" s="16">
+        <v>42</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E328" s="17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F328" s="18" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="27"/>
+      <c r="B329" s="24"/>
+      <c r="C329" s="24">
+        <v>46</v>
+      </c>
+      <c r="D329" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E329" s="25" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F329" s="26" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="23"/>
+      <c r="B330" s="24"/>
+      <c r="C330" s="24">
+        <v>50</v>
+      </c>
+      <c r="D330" s="25" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E330" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F330" s="26" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="27"/>
+      <c r="B331" s="24"/>
+      <c r="C331" s="24">
+        <v>90</v>
+      </c>
+      <c r="D331" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E331" s="25" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F331" s="26" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="27"/>
+      <c r="B332" s="28"/>
+      <c r="C332" s="24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D332" s="25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E332" s="25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F332" s="26" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A333" s="27"/>
+      <c r="B333" s="28"/>
+      <c r="C333" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D333" s="25" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E333" s="25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F333" s="26" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B334" s="24"/>
+      <c r="C334" s="24">
+        <v>125</v>
+      </c>
+      <c r="D334" s="25" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E334" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F334" s="26" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A335" s="29"/>
+      <c r="B335" s="24"/>
+      <c r="C335" s="24">
+        <v>128</v>
+      </c>
+      <c r="D335" s="25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E335" s="25" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F335" s="26" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A336" s="29"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24">
+        <v>131</v>
+      </c>
+      <c r="D336" s="25" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E336" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F336" s="26" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A337" s="29"/>
+      <c r="B337" s="24"/>
+      <c r="C337" s="24">
+        <v>134</v>
+      </c>
+      <c r="D337" s="25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E337" s="25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F337" s="26" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="27"/>
+      <c r="B338" s="28"/>
+      <c r="C338" s="24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D338" s="25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E338" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F338" s="26" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20">
+        <v>155</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E339" s="21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F339" s="22" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A340" s="30" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B340" s="16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C340" s="16">
+        <v>28</v>
+      </c>
+      <c r="D340" s="17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E340" s="17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F340" s="18" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A341" s="27"/>
+      <c r="B341" s="24"/>
+      <c r="C341" s="24">
+        <v>32</v>
+      </c>
+      <c r="D341" s="25" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E341" s="25" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F341" s="26" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A342" s="23"/>
+      <c r="B342" s="24"/>
+      <c r="C342" s="24">
+        <v>36</v>
+      </c>
+      <c r="D342" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E342" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F342" s="26" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B343" s="24"/>
+      <c r="C343" s="24">
+        <v>42</v>
+      </c>
+      <c r="D343" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E343" s="25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F343" s="26" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A344" s="27"/>
+      <c r="B344" s="28"/>
+      <c r="C344" s="49">
+        <v>56</v>
+      </c>
+      <c r="D344" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E344" s="25" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F344" s="26" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A345" s="27"/>
+      <c r="B345" s="28"/>
+      <c r="C345" s="50">
+        <v>60</v>
+      </c>
+      <c r="D345" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E345" s="25" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F345" s="26" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="27"/>
+      <c r="B346" s="28"/>
+      <c r="C346" s="49">
+        <v>66</v>
+      </c>
+      <c r="D346" s="25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E346" s="25" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F346" s="26" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A347" s="27"/>
+      <c r="B347" s="28"/>
+      <c r="C347" s="50">
+        <v>70</v>
+      </c>
+      <c r="D347" s="25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E347" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F347" s="26" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="27"/>
+      <c r="B348" s="24"/>
+      <c r="C348" s="24">
+        <v>95</v>
+      </c>
+      <c r="D348" s="25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E348" s="25" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F348" s="26" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="27"/>
+      <c r="B349" s="24"/>
+      <c r="C349" s="24">
+        <v>99</v>
+      </c>
+      <c r="D349" s="25" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E349" s="25" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F349" s="26" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="23"/>
+      <c r="B350" s="24"/>
+      <c r="C350" s="24">
+        <v>103</v>
+      </c>
+      <c r="D350" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E350" s="25" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F350" s="26" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="27"/>
+      <c r="B351" s="24"/>
+      <c r="C351" s="24">
+        <v>118</v>
+      </c>
+      <c r="D351" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E351" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F351" s="26" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="32"/>
+      <c r="B352" s="33"/>
+      <c r="C352" s="20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D352" s="21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E352" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F352" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A353" s="30" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C353" s="16">
+        <v>10</v>
+      </c>
+      <c r="D353" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E353" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F353" s="18" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="27"/>
+      <c r="B354" s="24"/>
+      <c r="C354" s="24">
+        <v>14</v>
+      </c>
+      <c r="D354" s="25" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E354" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F354" s="26" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="23"/>
+      <c r="B355" s="24"/>
+      <c r="C355" s="24">
+        <v>18</v>
+      </c>
+      <c r="D355" s="25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E355" s="25" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F355" s="26" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="27"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24">
+        <v>24</v>
+      </c>
+      <c r="D356" s="25" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E356" s="25" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F356" s="26" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A357" s="27"/>
+      <c r="B357" s="24"/>
+      <c r="C357" s="24">
+        <v>28</v>
+      </c>
+      <c r="D357" s="25" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E357" s="25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F357" s="26" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="31"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="20">
+        <v>32</v>
+      </c>
+      <c r="D358" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E358" s="21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F358" s="22" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A359" s="30" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B359" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D359" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E359" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F359" s="18" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="32"/>
+      <c r="B360" s="33"/>
+      <c r="C360" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D360" s="21" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E360" s="21" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F360" s="22" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A361" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C361" s="16">
+        <v>35</v>
+      </c>
+      <c r="D361" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E361" s="17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F361" s="18" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A362" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B362" s="24"/>
+      <c r="C362" s="24">
+        <v>43</v>
+      </c>
+      <c r="D362" s="25" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E362" s="25" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F362" s="26" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A363" s="29"/>
+      <c r="B363" s="24"/>
+      <c r="C363" s="24">
+        <v>46</v>
+      </c>
+      <c r="D363" s="25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E363" s="25" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F363" s="26" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B364" s="24"/>
+      <c r="C364" s="24">
+        <v>51</v>
+      </c>
+      <c r="D364" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E364" s="25" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F364" s="26" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="29"/>
+      <c r="B365" s="24"/>
+      <c r="C365" s="24">
+        <v>54</v>
+      </c>
+      <c r="D365" s="25" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E365" s="25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F365" s="26" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B366" s="24"/>
+      <c r="C366" s="24">
+        <v>67</v>
+      </c>
+      <c r="D366" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E366" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F366" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="29"/>
+      <c r="B367" s="24"/>
+      <c r="C367" s="24">
+        <v>81</v>
+      </c>
+      <c r="D367" s="25" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E367" s="25" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F367" s="26" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A368" s="29"/>
+      <c r="B368" s="24"/>
+      <c r="C368" s="24">
+        <v>84</v>
+      </c>
+      <c r="D368" s="25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E368" s="25" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F368" s="26" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B369" s="24"/>
+      <c r="C369" s="24">
+        <v>89</v>
+      </c>
+      <c r="D369" s="25" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E369" s="25" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F369" s="26" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A370" s="29"/>
+      <c r="B370" s="24"/>
+      <c r="C370" s="24">
+        <v>92</v>
+      </c>
+      <c r="D370" s="25" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E370" s="25" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F370" s="26" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B371" s="24"/>
+      <c r="C371" s="24">
+        <v>105</v>
+      </c>
+      <c r="D371" s="25" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E371" s="25" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F371" s="26" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B372" s="24"/>
+      <c r="C372" s="24">
+        <v>110</v>
+      </c>
+      <c r="D372" s="25" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E372" s="25" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F372" s="26" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="29"/>
+      <c r="B373" s="24"/>
+      <c r="C373" s="24">
+        <v>113</v>
+      </c>
+      <c r="D373" s="25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E373" s="25" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F373" s="26" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="29"/>
+      <c r="B374" s="24"/>
+      <c r="C374" s="24">
+        <v>131</v>
+      </c>
+      <c r="D374" s="25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E374" s="25" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F374" s="26" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A375" s="29"/>
+      <c r="B375" s="24"/>
+      <c r="C375" s="24">
+        <v>134</v>
+      </c>
+      <c r="D375" s="25" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E375" s="25" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F375" s="26" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="29"/>
+      <c r="B376" s="24"/>
+      <c r="C376" s="24">
+        <v>137</v>
+      </c>
+      <c r="D376" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E376" s="25" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F376" s="26" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="29"/>
+      <c r="B377" s="24"/>
+      <c r="C377" s="24">
+        <v>140</v>
+      </c>
+      <c r="D377" s="25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E377" s="25" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F377" s="26" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A378" s="29"/>
+      <c r="B378" s="24"/>
+      <c r="C378" s="24">
+        <v>156</v>
+      </c>
+      <c r="D378" s="25" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E378" s="25" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F378" s="26" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A379" s="29"/>
+      <c r="B379" s="24"/>
+      <c r="C379" s="24">
+        <v>159</v>
+      </c>
+      <c r="D379" s="25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E379" s="25" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F379" s="26" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B380" s="24"/>
+      <c r="C380" s="24">
+        <v>174</v>
+      </c>
+      <c r="D380" s="25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E380" s="25" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F380" s="26" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B381" s="24"/>
+      <c r="C381" s="24">
+        <v>183</v>
+      </c>
+      <c r="D381" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E381" s="25" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F381" s="26" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A382" s="29"/>
+      <c r="B382" s="24"/>
+      <c r="C382" s="24">
+        <v>191</v>
+      </c>
+      <c r="D382" s="25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E382" s="25" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F382" s="26" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383" s="24"/>
+      <c r="C383" s="24">
+        <v>203</v>
+      </c>
+      <c r="D383" s="25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E383" s="25" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F383" s="26" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B384" s="24"/>
+      <c r="C384" s="24">
+        <v>226</v>
+      </c>
+      <c r="D384" s="25" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E384" s="25" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F384" s="26" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A385" s="29"/>
+      <c r="B385" s="24"/>
+      <c r="C385" s="24">
+        <v>256</v>
+      </c>
+      <c r="D385" s="25" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E385" s="25" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F385" s="26" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A386" s="29"/>
+      <c r="B386" s="24"/>
+      <c r="C386" s="24">
+        <v>259</v>
+      </c>
+      <c r="D386" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="E386" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="F386" s="26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B387" s="24"/>
+      <c r="C387" s="24">
+        <v>268</v>
+      </c>
+      <c r="D387" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="E387" s="25" t="s">
+        <v>694</v>
+      </c>
+      <c r="F387" s="26" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="27"/>
+      <c r="B388" s="28"/>
+      <c r="C388" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D388" s="25" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E388" s="25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F388" s="26" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A389" s="27"/>
+      <c r="B389" s="28"/>
+      <c r="C389" s="24" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D389" s="25" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E389" s="25" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F389" s="26" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B390" s="24"/>
+      <c r="C390" s="24">
+        <v>341</v>
+      </c>
+      <c r="D390" s="25" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E390" s="25" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F390" s="26" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A391" s="27"/>
+      <c r="B391" s="28"/>
+      <c r="C391" s="24" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D391" s="25" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E391" s="25" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F391" s="26" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="27"/>
+      <c r="B392" s="28"/>
+      <c r="C392" s="24" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D392" s="25" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E392" s="25" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F392" s="26" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A393" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B393" s="24"/>
+      <c r="C393" s="24">
+        <v>400</v>
+      </c>
+      <c r="D393" s="25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E393" s="25" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F393" s="26" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="29"/>
+      <c r="B394" s="24"/>
+      <c r="C394" s="24">
+        <v>414</v>
+      </c>
+      <c r="D394" s="25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E394" s="25" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F394" s="26" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="29"/>
+      <c r="B395" s="24"/>
+      <c r="C395" s="24">
+        <v>423</v>
+      </c>
+      <c r="D395" s="25" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E395" s="25" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F395" s="26" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A396" s="29"/>
+      <c r="B396" s="24"/>
+      <c r="C396" s="24">
+        <v>426</v>
+      </c>
+      <c r="D396" s="25" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E396" s="25" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F396" s="26" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="27"/>
+      <c r="B397" s="28"/>
+      <c r="C397" s="24" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D397" s="25" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E397" s="25" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F397" s="26" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A398" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B398" s="24"/>
+      <c r="C398" s="24">
+        <v>447</v>
+      </c>
+      <c r="D398" s="25" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E398" s="25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F398" s="26" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A399" s="29"/>
+      <c r="B399" s="24"/>
+      <c r="C399" s="24">
+        <v>450</v>
+      </c>
+      <c r="D399" s="25" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E399" s="25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F399" s="26" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A400" s="29"/>
+      <c r="B400" s="24"/>
+      <c r="C400" s="24">
+        <v>453</v>
+      </c>
+      <c r="D400" s="25" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E400" s="25" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F400" s="26" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="27"/>
+      <c r="B401" s="28"/>
+      <c r="C401" s="24" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D401" s="25" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E401" s="25" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F401" s="26" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="27"/>
+      <c r="B402" s="28"/>
+      <c r="C402" s="24" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D402" s="25" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E402" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F402" s="26" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A403" s="27"/>
+      <c r="B403" s="28"/>
+      <c r="C403" s="24" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D403" s="25" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E403" s="25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F403" s="26" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A404" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B404" s="24"/>
+      <c r="C404" s="24">
+        <v>518</v>
+      </c>
+      <c r="D404" s="25" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E404" s="25" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F404" s="26" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A405" s="29"/>
+      <c r="B405" s="24"/>
+      <c r="C405" s="24">
+        <v>521</v>
+      </c>
+      <c r="D405" s="25" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E405" s="25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F405" s="26" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="27"/>
+      <c r="B406" s="28"/>
+      <c r="C406" s="24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D406" s="25" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E406" s="25" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F406" s="26" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A407" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B407" s="24"/>
+      <c r="C407" s="24">
+        <v>551</v>
+      </c>
+      <c r="D407" s="25" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E407" s="25" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F407" s="26" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="19"/>
+      <c r="B408" s="20"/>
+      <c r="C408" s="20">
+        <v>554</v>
+      </c>
+      <c r="D408" s="21" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E408" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F408" s="22" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A409" s="30" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B409" s="34" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C409" s="16" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D409" s="17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E409" s="17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F409" s="18" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B410" s="24"/>
+      <c r="C410" s="24">
+        <v>55</v>
+      </c>
+      <c r="D410" s="25" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E410" s="25" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F410" s="26" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="27"/>
+      <c r="B411" s="28"/>
+      <c r="C411" s="24" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D411" s="25" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E411" s="25" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F411" s="26" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A412" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B412" s="24"/>
+      <c r="C412" s="24">
+        <v>76</v>
+      </c>
+      <c r="D412" s="25" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E412" s="25" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F412" s="26" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A413" s="29"/>
+      <c r="B413" s="24"/>
+      <c r="C413" s="24">
+        <v>79</v>
+      </c>
+      <c r="D413" s="25" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E413" s="25" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F413" s="26" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="19"/>
+      <c r="B414" s="20"/>
+      <c r="C414" s="20">
+        <v>82</v>
+      </c>
+      <c r="D414" s="21" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E414" s="21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F414" s="22" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A415" s="15" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B415" s="16" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C415" s="16">
+        <v>20</v>
+      </c>
+      <c r="D415" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E415" s="17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F415" s="18" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" s="27"/>
+      <c r="B416" s="24"/>
+      <c r="C416" s="24" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D416" s="25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E416" s="25" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F416" s="26" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" s="23"/>
+      <c r="B417" s="24"/>
+      <c r="C417" s="24">
+        <v>66</v>
+      </c>
+      <c r="D417" s="25" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E417" s="25" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F417" s="26" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A418" s="27"/>
+      <c r="B418" s="24"/>
+      <c r="C418" s="24" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D418" s="25" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E418" s="25" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F418" s="26" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" s="23"/>
+      <c r="B419" s="24"/>
+      <c r="C419" s="24">
+        <v>80</v>
+      </c>
+      <c r="D419" s="25" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E419" s="25" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F419" s="26" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B420" s="24"/>
+      <c r="C420" s="24">
+        <v>90</v>
+      </c>
+      <c r="D420" s="25" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E420" s="25" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F420" s="26" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="27"/>
+      <c r="B421" s="28"/>
+      <c r="C421" s="24" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D421" s="25" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E421" s="25" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F421" s="26" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A422" s="27"/>
+      <c r="B422" s="28"/>
+      <c r="C422" s="24" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D422" s="25" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E422" s="25" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F422" s="26" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="20">
+        <v>125</v>
+      </c>
+      <c r="D423" s="21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E423" s="21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F423" s="22" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A424" s="15" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B424" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C424" s="16">
+        <v>13</v>
+      </c>
+      <c r="D424" s="17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E424" s="17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F424" s="18" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" s="29" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B425" s="24"/>
+      <c r="C425" s="24">
+        <v>16</v>
+      </c>
+      <c r="D425" s="25" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E425" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F425" s="26" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A426" s="29"/>
+      <c r="B426" s="24"/>
+      <c r="C426" s="24">
+        <v>19</v>
+      </c>
+      <c r="D426" s="25" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E426" s="25" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F426" s="26" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A427" s="29"/>
+      <c r="B427" s="24"/>
+      <c r="C427" s="24">
+        <v>22</v>
+      </c>
+      <c r="D427" s="25" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E427" s="25" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F427" s="26" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A428" s="29"/>
+      <c r="B428" s="24"/>
+      <c r="C428" s="24">
+        <v>56</v>
+      </c>
+      <c r="D428" s="25" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E428" s="25" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F428" s="26" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="29"/>
+      <c r="B429" s="24"/>
+      <c r="C429" s="24">
+        <v>64</v>
+      </c>
+      <c r="D429" s="25" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E429" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F429" s="26" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B430" s="24"/>
+      <c r="C430" s="24">
+        <v>76</v>
+      </c>
+      <c r="D430" s="25" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E430" s="25" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F430" s="26" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B431" s="24"/>
+      <c r="C431" s="24">
+        <v>140</v>
+      </c>
+      <c r="D431" s="25" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E431" s="25" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F431" s="26" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B432" s="24"/>
+      <c r="C432" s="24">
+        <v>171</v>
+      </c>
+      <c r="D432" s="25" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E432" s="25" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F432" s="26" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" s="29"/>
+      <c r="B433" s="24"/>
+      <c r="C433" s="24">
+        <v>196</v>
+      </c>
+      <c r="D433" s="25" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E433" s="25" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F433" s="26" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A434" s="29"/>
+      <c r="B434" s="24"/>
+      <c r="C434" s="24">
+        <v>199</v>
+      </c>
+      <c r="D434" s="25" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E434" s="25" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F434" s="26" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A435" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B435" s="24"/>
+      <c r="C435" s="24">
+        <v>207</v>
+      </c>
+      <c r="D435" s="25" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E435" s="25" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F435" s="26" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A436" s="27"/>
+      <c r="B436" s="24"/>
+      <c r="C436" s="24">
+        <v>222</v>
+      </c>
+      <c r="D436" s="25" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E436" s="25" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F436" s="26" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A437" s="27"/>
+      <c r="B437" s="24"/>
+      <c r="C437" s="24">
+        <v>226</v>
+      </c>
+      <c r="D437" s="25" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E437" s="25" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F437" s="26" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A438" s="23"/>
+      <c r="B438" s="24"/>
+      <c r="C438" s="24">
+        <v>230</v>
+      </c>
+      <c r="D438" s="25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E438" s="25" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F438" s="26" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B439" s="24"/>
+      <c r="C439" s="24">
+        <v>240</v>
+      </c>
+      <c r="D439" s="25" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E439" s="25" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F439" s="26" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" s="29"/>
+      <c r="B440" s="24"/>
+      <c r="C440" s="24">
+        <v>245</v>
+      </c>
+      <c r="D440" s="25" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E440" s="25" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F440" s="26" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A441" s="29"/>
+      <c r="B441" s="24"/>
+      <c r="C441" s="24">
+        <v>252</v>
+      </c>
+      <c r="D441" s="25" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E441" s="25" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F441" s="26" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" s="27"/>
+      <c r="B442" s="24"/>
+      <c r="C442" s="24">
+        <v>264</v>
+      </c>
+      <c r="D442" s="25" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E442" s="25" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F442" s="26" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A443" s="27"/>
+      <c r="B443" s="24"/>
+      <c r="C443" s="24">
+        <v>268</v>
+      </c>
+      <c r="D443" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E443" s="25" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F443" s="26" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" s="23"/>
+      <c r="B444" s="24"/>
+      <c r="C444" s="24">
+        <v>272</v>
+      </c>
+      <c r="D444" s="25" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E444" s="25" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F444" s="26" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A445" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B445" s="24"/>
+      <c r="C445" s="24">
+        <v>293</v>
+      </c>
+      <c r="D445" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E445" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F445" s="26" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A446" s="29"/>
+      <c r="B446" s="24"/>
+      <c r="C446" s="24">
+        <v>296</v>
+      </c>
+      <c r="D446" s="25" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E446" s="25" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F446" s="26" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="29"/>
+      <c r="B447" s="24"/>
+      <c r="C447" s="24">
+        <v>307</v>
+      </c>
+      <c r="D447" s="25" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E447" s="25" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F447" s="26" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B448" s="24"/>
+      <c r="C448" s="24">
+        <v>321</v>
+      </c>
+      <c r="D448" s="25" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E448" s="25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F448" s="26" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A449" s="29"/>
+      <c r="B449" s="24"/>
+      <c r="C449" s="24">
+        <v>333</v>
+      </c>
+      <c r="D449" s="25" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E449" s="25" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F449" s="26" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B450" s="24"/>
+      <c r="C450" s="24">
+        <v>338</v>
+      </c>
+      <c r="D450" s="25" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E450" s="25" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F450" s="26" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A451" s="35"/>
+      <c r="B451" s="24"/>
+      <c r="C451" s="24">
+        <v>347</v>
+      </c>
+      <c r="D451" s="25" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E451" s="25" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F451" s="26" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A452" s="35"/>
+      <c r="B452" s="24"/>
+      <c r="C452" s="24">
+        <v>352</v>
+      </c>
+      <c r="D452" s="25" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E452" s="25" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F452" s="26" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A453" s="35"/>
+      <c r="B453" s="24"/>
+      <c r="C453" s="24">
+        <v>355</v>
+      </c>
+      <c r="D453" s="25" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E453" s="25" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F453" s="26" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A454" s="35"/>
+      <c r="B454" s="24"/>
+      <c r="C454" s="24">
+        <v>358</v>
+      </c>
+      <c r="D454" s="25" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E454" s="25" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F454" s="26" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A455" s="35"/>
+      <c r="B455" s="24"/>
+      <c r="C455" s="24">
+        <v>371</v>
+      </c>
+      <c r="D455" s="25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E455" s="25" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F455" s="26" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A456" s="35"/>
+      <c r="B456" s="24"/>
+      <c r="C456" s="24">
+        <v>374</v>
+      </c>
+      <c r="D456" s="25" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E456" s="25" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F456" s="26" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="56"/>
+      <c r="B457" s="20"/>
+      <c r="C457" s="20">
+        <v>377</v>
+      </c>
+      <c r="D457" s="21" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E457" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F457" s="22" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A458" s="15" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B458" s="16" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C458" s="16">
+        <v>14</v>
+      </c>
+      <c r="D458" s="17" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E458" s="17" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F458" s="18" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A459" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B459" s="24"/>
+      <c r="C459" s="24">
+        <v>17</v>
+      </c>
+      <c r="D459" s="25" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E459" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F459" s="26" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A460" s="29"/>
+      <c r="B460" s="24"/>
+      <c r="C460" s="24">
+        <v>20</v>
+      </c>
+      <c r="D460" s="25" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E460" s="25" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F460" s="26" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A461" s="35"/>
+      <c r="B461" s="24"/>
+      <c r="C461" s="24">
+        <v>25</v>
+      </c>
+      <c r="D461" s="25" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E461" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F461" s="26" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" s="35"/>
+      <c r="B462" s="24"/>
+      <c r="C462" s="24">
+        <v>30</v>
+      </c>
+      <c r="D462" s="25" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E462" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F462" s="26" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A463" s="35"/>
+      <c r="B463" s="24"/>
+      <c r="C463" s="24">
+        <v>33</v>
+      </c>
+      <c r="D463" s="25" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E463" s="25" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F463" s="26" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A464" s="35"/>
+      <c r="B464" s="24"/>
+      <c r="C464" s="24">
+        <v>36</v>
+      </c>
+      <c r="D464" s="25" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E464" s="25" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F464" s="26" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" s="35"/>
+      <c r="B465" s="24"/>
+      <c r="C465" s="24">
+        <v>39</v>
+      </c>
+      <c r="D465" s="25" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E465" s="25" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F465" s="26" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="35"/>
+      <c r="B466" s="24"/>
+      <c r="C466" s="24">
+        <v>42</v>
+      </c>
+      <c r="D466" s="25" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E466" s="25" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F466" s="26" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" s="27"/>
+      <c r="B467" s="24"/>
+      <c r="C467" s="24">
+        <v>65</v>
+      </c>
+      <c r="D467" s="25" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E467" s="25" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F467" s="26" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A468" s="27"/>
+      <c r="B468" s="24"/>
+      <c r="C468" s="24">
+        <v>69</v>
+      </c>
+      <c r="D468" s="25" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E468" s="25" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F468" s="26" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A469" s="23"/>
+      <c r="B469" s="24"/>
+      <c r="C469" s="24">
+        <v>73</v>
+      </c>
+      <c r="D469" s="25" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E469" s="25" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F469" s="26" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" s="27"/>
+      <c r="B470" s="24"/>
+      <c r="C470" s="24" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D470" s="25" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E470" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F470" s="26" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A471" s="23"/>
+      <c r="B471" s="24"/>
+      <c r="C471" s="24">
+        <v>90</v>
+      </c>
+      <c r="D471" s="25" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E471" s="25" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F471" s="26" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A472" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24">
+        <v>96</v>
+      </c>
+      <c r="D472" s="25" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E472" s="25" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F472" s="26" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A473" s="29"/>
+      <c r="B473" s="24"/>
+      <c r="C473" s="24">
+        <v>100</v>
+      </c>
+      <c r="D473" s="25" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E473" s="25" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F473" s="26" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" s="27"/>
+      <c r="B474" s="28"/>
+      <c r="C474" s="24" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D474" s="25" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E474" s="25" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F474" s="26" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A475" s="27"/>
+      <c r="B475" s="24"/>
+      <c r="C475" s="24">
+        <v>155</v>
+      </c>
+      <c r="D475" s="25" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E475" s="25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F475" s="26" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A476" s="27"/>
+      <c r="B476" s="24"/>
+      <c r="C476" s="24">
+        <v>159</v>
+      </c>
+      <c r="D476" s="25" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E476" s="25" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F476" s="26" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A477" s="23"/>
+      <c r="B477" s="24"/>
+      <c r="C477" s="24">
+        <v>163</v>
+      </c>
+      <c r="D477" s="25" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E477" s="25" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F477" s="26" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A478" s="27"/>
+      <c r="B478" s="28"/>
+      <c r="C478" s="24" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D478" s="25" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E478" s="25" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F478" s="26" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A479" s="27"/>
+      <c r="B479" s="28"/>
+      <c r="C479" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D479" s="25" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E479" s="25" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F479" s="26" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A480" s="27"/>
+      <c r="B480" s="28"/>
+      <c r="C480" s="24" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D480" s="25" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E480" s="25" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F480" s="26" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A481" s="27"/>
+      <c r="B481" s="28"/>
+      <c r="C481" s="24" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D481" s="25" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E481" s="25" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F481" s="26" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A482" s="54"/>
+      <c r="B482" s="50"/>
+      <c r="C482" s="24" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D482" s="25" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E482" s="25" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F482" s="26" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A483" s="54"/>
+      <c r="B483" s="50"/>
+      <c r="C483" s="24" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D483" s="25" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E483" s="25" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F483" s="26" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A484" s="54"/>
+      <c r="B484" s="24"/>
+      <c r="C484" s="24">
+        <v>263</v>
+      </c>
+      <c r="D484" s="25" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E484" s="25" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F484" s="26" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A485" s="57"/>
+      <c r="B485" s="24"/>
+      <c r="C485" s="24">
+        <v>267</v>
+      </c>
+      <c r="D485" s="25" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E485" s="25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F485" s="26" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A486" s="37"/>
+      <c r="B486" s="24"/>
+      <c r="C486" s="24">
+        <v>274</v>
+      </c>
+      <c r="D486" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E486" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="F486" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="58"/>
+      <c r="B487" s="53"/>
+      <c r="C487" s="20">
+        <v>283</v>
+      </c>
+      <c r="D487" s="21" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E487" s="21" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F487" s="22" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A488" s="59" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B488" s="48"/>
+      <c r="C488" s="16" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D488" s="17" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E488" s="17" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F488" s="18" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A489" s="54"/>
+      <c r="B489" s="50"/>
+      <c r="C489" s="24" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D489" s="25" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E489" s="25" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F489" s="26" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A490" s="54"/>
+      <c r="B490" s="24"/>
+      <c r="C490" s="24">
+        <v>35</v>
+      </c>
+      <c r="D490" s="25" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E490" s="25" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F490" s="26" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A491" s="57"/>
+      <c r="B491" s="24"/>
+      <c r="C491" s="24">
+        <v>39</v>
+      </c>
+      <c r="D491" s="25" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E491" s="25" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F491" s="26" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A492" s="54"/>
+      <c r="B492" s="50"/>
+      <c r="C492" s="24" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D492" s="25" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E492" s="25" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F492" s="26" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A493" s="27"/>
+      <c r="B493" s="24"/>
+      <c r="C493" s="24">
+        <v>70</v>
+      </c>
+      <c r="D493" s="25" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E493" s="25" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F493" s="26" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A494" s="27"/>
+      <c r="B494" s="24"/>
+      <c r="C494" s="24">
+        <v>74</v>
+      </c>
+      <c r="D494" s="25" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E494" s="25" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F494" s="26" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A495" s="23"/>
+      <c r="B495" s="24"/>
+      <c r="C495" s="24">
+        <v>78</v>
+      </c>
+      <c r="D495" s="25" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E495" s="25" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F495" s="26" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A496" s="27"/>
+      <c r="B496" s="28"/>
+      <c r="C496" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="D496" s="25" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E496" s="25" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F496" s="26" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A497" s="27"/>
+      <c r="B497" s="24"/>
+      <c r="C497" s="24">
+        <v>116</v>
+      </c>
+      <c r="D497" s="25" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E497" s="25" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F497" s="26" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A498" s="27"/>
+      <c r="B498" s="24"/>
+      <c r="C498" s="24">
+        <v>120</v>
+      </c>
+      <c r="D498" s="25" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E498" s="25" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F498" s="26" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" s="23"/>
+      <c r="B499" s="24"/>
+      <c r="C499" s="24">
+        <v>124</v>
+      </c>
+      <c r="D499" s="25" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E499" s="25" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F499" s="26" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A500" s="27"/>
+      <c r="B500" s="24"/>
+      <c r="C500" s="24" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D500" s="25" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E500" s="25" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F500" s="26" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A501" s="23"/>
+      <c r="B501" s="24"/>
+      <c r="C501" s="24">
+        <v>138</v>
+      </c>
+      <c r="D501" s="25" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E501" s="25" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F501" s="26" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A502" s="27"/>
+      <c r="B502" s="24"/>
+      <c r="C502" s="24" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D502" s="25" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E502" s="25" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F502" s="26" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A503" s="23"/>
+      <c r="B503" s="24"/>
+      <c r="C503" s="24">
+        <v>178</v>
+      </c>
+      <c r="D503" s="25" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E503" s="25" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F503" s="26" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="32"/>
+      <c r="B504" s="33"/>
+      <c r="C504" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="D504" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E504" s="21" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F504" s="22" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A505" s="30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B505" s="34" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C505" s="16" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D505" s="17" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E505" s="17" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F505" s="18" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A506" s="27"/>
+      <c r="B506" s="28"/>
+      <c r="C506" s="24" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D506" s="25" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E506" s="25" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F506" s="26" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A507" s="27"/>
+      <c r="B507" s="24"/>
+      <c r="C507" s="24">
+        <v>76</v>
+      </c>
+      <c r="D507" s="25" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E507" s="25" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F507" s="26" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A508" s="27"/>
+      <c r="B508" s="24"/>
+      <c r="C508" s="24">
+        <v>80</v>
+      </c>
+      <c r="D508" s="25" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E508" s="25" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F508" s="26" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A509" s="23"/>
+      <c r="B509" s="24"/>
+      <c r="C509" s="24">
+        <v>84</v>
+      </c>
+      <c r="D509" s="25" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E509" s="25" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F509" s="26" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A510" s="27"/>
+      <c r="B510" s="28"/>
+      <c r="C510" s="24" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D510" s="25" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E510" s="25" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F510" s="26" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A511" s="27"/>
+      <c r="B511" s="28"/>
+      <c r="C511" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D511" s="25" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E511" s="25" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F511" s="26" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A512" s="27"/>
+      <c r="B512" s="24"/>
+      <c r="C512" s="24" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D512" s="25" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E512" s="25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F512" s="26" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A513" s="23"/>
+      <c r="B513" s="24"/>
+      <c r="C513" s="24">
+        <v>126</v>
+      </c>
+      <c r="D513" s="25" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E513" s="25" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F513" s="26" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A514" s="27"/>
+      <c r="B514" s="28"/>
+      <c r="C514" s="49">
+        <v>132</v>
+      </c>
+      <c r="D514" s="25" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E514" s="25" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F514" s="26" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A515" s="27"/>
+      <c r="B515" s="28"/>
+      <c r="C515" s="50">
+        <v>136</v>
+      </c>
+      <c r="D515" s="25" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E515" s="25" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F515" s="26" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A516" s="54"/>
+      <c r="B516" s="50"/>
+      <c r="C516" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D516" s="25" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E516" s="25" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F516" s="26" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A517" s="54"/>
+      <c r="B517" s="24"/>
+      <c r="C517" s="24">
+        <v>154</v>
+      </c>
+      <c r="D517" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E517" s="25" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F517" s="26" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A518" s="57"/>
+      <c r="B518" s="24"/>
+      <c r="C518" s="24">
+        <v>158</v>
+      </c>
+      <c r="D518" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E518" s="25" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F518" s="26" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A519" s="54"/>
+      <c r="B519" s="50"/>
+      <c r="C519" s="24" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D519" s="25" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E519" s="25" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F519" s="26" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A520" s="27"/>
+      <c r="B520" s="28"/>
+      <c r="C520" s="24" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D520" s="25" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E520" s="25" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F520" s="26" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A521" s="27"/>
+      <c r="B521" s="28"/>
+      <c r="C521" s="24" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D521" s="25" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E521" s="25" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F521" s="26" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="32"/>
+      <c r="B522" s="33"/>
+      <c r="C522" s="20" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D522" s="21" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E522" s="21" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F522" s="22" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A523" s="30" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B523" s="55" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C523" s="16">
+        <v>29</v>
+      </c>
+      <c r="D523" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="E523" s="17" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F523" s="18" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" s="27"/>
+      <c r="B524" s="24"/>
+      <c r="C524" s="24">
+        <v>33</v>
+      </c>
+      <c r="D524" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="E524" s="25" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F524" s="26" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" s="23"/>
+      <c r="B525" s="24"/>
+      <c r="C525" s="24">
+        <v>37</v>
+      </c>
+      <c r="D525" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="E525" s="25" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F525" s="26" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" s="27"/>
+      <c r="B526" s="28"/>
+      <c r="C526" s="24" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D526" s="25" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E526" s="25" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F526" s="26" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A527" s="27"/>
+      <c r="B527" s="24"/>
+      <c r="C527" s="24" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D527" s="25" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E527" s="25" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F527" s="26" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A528" s="23"/>
+      <c r="B528" s="24"/>
+      <c r="C528" s="24">
+        <v>65</v>
+      </c>
+      <c r="D528" s="25" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E528" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F528" s="26" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" s="27"/>
+      <c r="B529" s="28"/>
+      <c r="C529" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="D529" s="25" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E529" s="25" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F529" s="26" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A530" s="27"/>
+      <c r="B530" s="28"/>
+      <c r="C530" s="24" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D530" s="25" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E530" s="25" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F530" s="26" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" s="54"/>
+      <c r="B531" s="50"/>
+      <c r="C531" s="24" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D531" s="25" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E531" s="25" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F531" s="26" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" s="27"/>
+      <c r="B532" s="24"/>
+      <c r="C532" s="24">
+        <v>118</v>
+      </c>
+      <c r="D532" s="25" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E532" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F532" s="26" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A533" s="27"/>
+      <c r="B533" s="24"/>
+      <c r="C533" s="24">
+        <v>122</v>
+      </c>
+      <c r="D533" s="25" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E533" s="25" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F533" s="26" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" s="23"/>
+      <c r="B534" s="24"/>
+      <c r="C534" s="24">
+        <v>126</v>
+      </c>
+      <c r="D534" s="25" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E534" s="25" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F534" s="26" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A535" s="27"/>
+      <c r="B535" s="24"/>
+      <c r="C535" s="24" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D535" s="25" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E535" s="25" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F535" s="26" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A536" s="23"/>
+      <c r="B536" s="24"/>
+      <c r="C536" s="24">
+        <v>140</v>
+      </c>
+      <c r="D536" s="25" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E536" s="25" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F536" s="26" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A537" s="27"/>
+      <c r="B537" s="24"/>
+      <c r="C537" s="24" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D537" s="25" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E537" s="25" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F537" s="26" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A538" s="23"/>
+      <c r="B538" s="24"/>
+      <c r="C538" s="24">
+        <v>154</v>
+      </c>
+      <c r="D538" s="25" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E538" s="25" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F538" s="26" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="27"/>
+      <c r="B539" s="28"/>
+      <c r="C539" s="24" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D539" s="25" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E539" s="25" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F539" s="26" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A540" s="27"/>
+      <c r="B540" s="28"/>
+      <c r="C540" s="24" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D540" s="25" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E540" s="25" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F540" s="26" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A541" s="54"/>
+      <c r="B541" s="50"/>
+      <c r="C541" s="24" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D541" s="25" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E541" s="25" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F541" s="26" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A542" s="54"/>
+      <c r="B542" s="50"/>
+      <c r="C542" s="24" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D542" s="25" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E542" s="25" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F542" s="26" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A543" s="54"/>
+      <c r="B543" s="50"/>
+      <c r="C543" s="24" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D543" s="25" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E543" s="25" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F543" s="26" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A544" s="54"/>
+      <c r="B544" s="50"/>
+      <c r="C544" s="24" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D544" s="25" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E544" s="25" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F544" s="26" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A545" s="27"/>
+      <c r="B545" s="28"/>
+      <c r="C545" s="49">
+        <v>234</v>
+      </c>
+      <c r="D545" s="25" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E545" s="25" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F545" s="26" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A546" s="27"/>
+      <c r="B546" s="28"/>
+      <c r="C546" s="50">
+        <v>238</v>
+      </c>
+      <c r="D546" s="25" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E546" s="25" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F546" s="26" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A547" s="27"/>
+      <c r="B547" s="24"/>
+      <c r="C547" s="24" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D547" s="25" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E547" s="25" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F547" s="26" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A548" s="23"/>
+      <c r="B548" s="24"/>
+      <c r="C548" s="24">
+        <v>252</v>
+      </c>
+      <c r="D548" s="25" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E548" s="25" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F548" s="26" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A549" s="27"/>
+      <c r="B549" s="28"/>
+      <c r="C549" s="24" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D549" s="25" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E549" s="25" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F549" s="26" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A550" s="54"/>
+      <c r="B550" s="50"/>
+      <c r="C550" s="24" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D550" s="25" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E550" s="25" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F550" s="26" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A551" s="54"/>
+      <c r="B551" s="50"/>
+      <c r="C551" s="24" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D551" s="25" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E551" s="25" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F551" s="26" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A552" s="54"/>
+      <c r="B552" s="50"/>
+      <c r="C552" s="24" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D552" s="25" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E552" s="25" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F552" s="26" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A553" s="27"/>
+      <c r="B553" s="28"/>
+      <c r="C553" s="24" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D553" s="25" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E553" s="25" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F553" s="26" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="27"/>
+      <c r="B554" s="28"/>
+      <c r="C554" s="24" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D554" s="25" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E554" s="25" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F554" s="26" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A555" s="27"/>
+      <c r="B555" s="28"/>
+      <c r="C555" s="24" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D555" s="25" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E555" s="25" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F555" s="26" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A556" s="27"/>
+      <c r="B556" s="28"/>
+      <c r="C556" s="24" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D556" s="25" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E556" s="25" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F556" s="26" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A557" s="54"/>
+      <c r="B557" s="50"/>
+      <c r="C557" s="24" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D557" s="25" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E557" s="25" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F557" s="26" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A558" s="32"/>
+      <c r="B558" s="33"/>
+      <c r="C558" s="20" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D558" s="21" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E558" s="21" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F558" s="22" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A559" s="60" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B559" s="61" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C559" s="40" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D559" s="41" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E559" s="41" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F559" s="42" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A560" s="60" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B560" s="61" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C560" s="40" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D560" s="41" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E560" s="41" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F560" s="42" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A561" s="30" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B561" s="16" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C561" s="16" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D561" s="17" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E561" s="17" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F561" s="18" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A562" s="31"/>
+      <c r="B562" s="20"/>
+      <c r="C562" s="20">
+        <v>27</v>
+      </c>
+      <c r="D562" s="21" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E562" s="21" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F562" s="22" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A563" s="30" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B563" s="34" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C563" s="16" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D563" s="17" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E563" s="17" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F563" s="18" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" s="27"/>
+      <c r="B564" s="28"/>
+      <c r="C564" s="24" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D564" s="25" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E564" s="25" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F564" s="26" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A565" s="27"/>
+      <c r="B565" s="28"/>
+      <c r="C565" s="24" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D565" s="25" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E565" s="25" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F565" s="26" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A566" s="32"/>
+      <c r="B566" s="33"/>
+      <c r="C566" s="20" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D566" s="21" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E566" s="21" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F566" s="22" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A567" s="60" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B567" s="61" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C567" s="40" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D567" s="41" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E567" s="41" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F567" s="42" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A568" s="60" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B568" s="61" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C568" s="40" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D568" s="41" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E568" s="41" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F568" s="42" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A569" s="30" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B569" s="34" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C569" s="16" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D569" s="17" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E569" s="17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F569" s="18" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A570" s="27"/>
+      <c r="B570" s="28"/>
+      <c r="C570" s="24" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D570" s="25" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E570" s="25" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F570" s="26" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A571" s="27"/>
+      <c r="B571" s="28"/>
+      <c r="C571" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="D571" s="25" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E571" s="25" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F571" s="26" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A572" s="27"/>
+      <c r="B572" s="28"/>
+      <c r="C572" s="24" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D572" s="25" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E572" s="25" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F572" s="26" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A573" s="27"/>
+      <c r="B573" s="28"/>
+      <c r="C573" s="24" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D573" s="25" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E573" s="25" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F573" s="26" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A574" s="32"/>
+      <c r="B574" s="33"/>
+      <c r="C574" s="20" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D574" s="21" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E574" s="21" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F574" s="22" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A575" s="15" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B575" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C575" s="16">
+        <v>10</v>
+      </c>
+      <c r="D575" s="17" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E575" s="17" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F575" s="18" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A576" s="29" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B576" s="24"/>
+      <c r="C576" s="24">
+        <v>24</v>
+      </c>
+      <c r="D576" s="25" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E576" s="25" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F576" s="26" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A577" s="19"/>
+      <c r="B577" s="20"/>
+      <c r="C577" s="20">
+        <v>27</v>
+      </c>
+      <c r="D577" s="21" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E577" s="21" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F577" s="22" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="15" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B578" s="16" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C578" s="16">
+        <v>20</v>
+      </c>
+      <c r="D578" s="17" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E578" s="17" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F578" s="18" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A579" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B579" s="24"/>
+      <c r="C579" s="24">
+        <v>32</v>
+      </c>
+      <c r="D579" s="25" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E579" s="25" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F579" s="26" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A580" s="29"/>
+      <c r="B580" s="24"/>
+      <c r="C580" s="24">
+        <v>35</v>
+      </c>
+      <c r="D580" s="25" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E580" s="25" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F580" s="26" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A581" s="29"/>
+      <c r="B581" s="24"/>
+      <c r="C581" s="24">
+        <v>38</v>
+      </c>
+      <c r="D581" s="25" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E581" s="25" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F581" s="26" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="19"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="20">
+        <v>53</v>
+      </c>
+      <c r="D582" s="21" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E582" s="21" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F582" s="22" t="s">
+        <v>1892</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Texts/Сюжетные сцены/Глава 3.xlsx
+++ b/Texts/Сюжетные сцены/Глава 3.xlsx
@@ -6406,8 +6406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C579" sqref="C579"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D455" sqref="D455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Texts/Сюжетные сцены/Глава 3.xlsx
+++ b/Texts/Сюжетные сцены/Глава 3.xlsx
@@ -1185,9 +1185,6 @@
     <t xml:space="preserve"> Thank you, Misters [CS:N]Kecleon[CR]!</t>
   </si>
   <si>
-    <t>Марилл</t>
-  </si>
-  <si>
     <t xml:space="preserve"> No, thank you, my young friends!\nYou are to be admired! ♪</t>
   </si>
   <si>
@@ -1257,9 +1254,6 @@
     <t xml:space="preserve"> О, разумеется!</t>
   </si>
   <si>
-    <t>[CN][CS:N]Марилл[CR] и [CS:N]Азурилл[CR] купили [CS:I]Яблоко[CR]\n[CN]в Лавке [CS:K]Кеклеонов[CR].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Спасибо, Мистеры [CS:N]Кеклеоны[CR]!</t>
   </si>
   <si>
@@ -1389,9 +1383,6 @@
     <t xml:space="preserve"> À! Íàìýóëé [CS:N]Íàñéìì[CR] é [CS:N]Àèôñéìì[CR]!\nÄïáñï ðïçàìïâàóû, íïé ýîúå äñôèûÿ! ♪</t>
   </si>
   <si>
-    <t xml:space="preserve"> А! Малютки [CS:N]Марилл[CR] и [CS:N]Азурилл[CR]!\nДобро пожаловать, мои юные друзья! ♪</t>
-  </si>
-  <si>
     <t>SCRIPT/T01P02A/m03d0313.ssb</t>
   </si>
   <si>
@@ -3195,9 +3186,6 @@
     <t>SCRIPT/P01P01A/m03a0511.ssb</t>
   </si>
   <si>
-    <t>Встреча с Мариллом</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hey! There\'s [CS:N]Marill[CR]!</t>
   </si>
   <si>
@@ -3243,21 +3231,6 @@
     <t xml:space="preserve"> Th-that way!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Эй! Это же [CS:N]Марилл[CR]!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Смотри! Это [CS:N]Марилл[CR]!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ой! Там [CS:N]Марилл[CR]!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [CS:N]Марилл[CR], что случилось?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [CS:N]Марилл[CR], что произошло?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Где [CS:N]Азурилл[CR] и [CS:N]Дроузи[CR]?</t>
   </si>
   <si>
@@ -4218,15 +4191,9 @@
     <t xml:space="preserve"> [CS:N]Азурилл[CR]!</t>
   </si>
   <si>
-    <t xml:space="preserve"> [CS:N]Марилл[CR]!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Уааааа!</t>
   </si>
   <si>
-    <t xml:space="preserve"> [CS:N]Марилл[CR]![K] Мне было так страшно!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ты в порядке, [CS:N]Азурилл[CR]?[K] Не ранен?</t>
   </si>
   <si>
@@ -5716,6 +5683,39 @@
   </si>
   <si>
     <t>[CN]Âàšà ëïíàîäà ðïìôœàåó áïìåå âíåòóéóåìûîôý\n[CN]Òôíëô äìÿ Øåîîïòóåê![W:100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А! Малютки [CS:N]Мэрилл[CR] и [CS:N]Азурилл[CR]!\nДобро пожаловать, мои юные друзья! ♪</t>
+  </si>
+  <si>
+    <t>[CN][CS:N]Мэрилл[CR] и [CS:N]Азурилл[CR] купили [CS:I]Яблоко[CR]\n[CN]в Лавке [CS:K]Кеклеонов[CR].</t>
+  </si>
+  <si>
+    <t>Мэрилл</t>
+  </si>
+  <si>
+    <t>Встреча с Мэриллом</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй! Это же [CS:N]Мэрилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Смотри! Это [CS:N]Мэрилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Там [CS:N]Мэрилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Мэрилл[CR], что случилось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Мэрилл[CR], что произошло?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Мэрилл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Мэрилл[CR]![K] Мне было так страшно!</t>
   </si>
 </sst>
 </file>
@@ -6406,8 +6406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D455" sqref="D455"/>
+    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E515" sqref="E515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7981,10 +7981,10 @@
         <v>298</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8317,10 +8317,10 @@
         <v>380</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8335,10 +8335,10 @@
         <v>381</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>456</v>
+        <v>1888</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8353,10 +8353,10 @@
         <v>383</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -8371,10 +8371,10 @@
         <v>385</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8387,15 +8387,15 @@
         <v>386</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>412</v>
+        <v>1889</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="24">
@@ -8405,10 +8405,10 @@
         <v>387</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8420,13 +8420,13 @@
         <v>128</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8436,13 +8436,13 @@
         <v>164</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8452,13 +8452,13 @@
         <v>167</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8468,18 +8468,18 @@
         <v>170</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24">
@@ -8489,10 +8489,10 @@
         <v>380</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8504,13 +8504,13 @@
         <v>225</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -8522,31 +8522,31 @@
         <v>234</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24">
         <v>240</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8558,13 +8558,13 @@
         <v>245</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8574,31 +8574,31 @@
         <v>248</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="24">
         <v>261</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8610,13 +8610,13 @@
         <v>269</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8628,13 +8628,13 @@
         <v>277</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -8646,13 +8646,13 @@
         <v>320</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8662,13 +8662,13 @@
         <v>379</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8678,13 +8678,13 @@
         <v>387</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -8694,105 +8694,105 @@
         <v>390</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="37"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="38"/>
       <c r="B137" s="20"/>
       <c r="C137" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="39" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C138" s="40">
         <v>73</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E138" s="41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F138" s="42" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="43" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C139" s="40">
         <v>8</v>
       </c>
       <c r="D139" s="41" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E139" s="41" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F139" s="42" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="B140" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="C140" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="D140" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="B140" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="C140" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>466</v>
-      </c>
       <c r="E140" s="17" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8802,13 +8802,13 @@
         <v>55</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8818,29 +8818,29 @@
         <v>59</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="37"/>
       <c r="B143" s="49"/>
       <c r="C143" s="50" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F143" s="26" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -8852,31 +8852,31 @@
         <v>97</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A145" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B145" s="24"/>
       <c r="C145" s="24">
         <v>102</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -8888,31 +8888,31 @@
         <v>114</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B147" s="24"/>
       <c r="C147" s="24">
         <v>148</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -8924,31 +8924,31 @@
         <v>153</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F148" s="26" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A149" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B149" s="24"/>
       <c r="C149" s="24">
         <v>158</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -8958,13 +8958,13 @@
         <v>161</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F150" s="26" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -8976,29 +8976,29 @@
         <v>170</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F151" s="26" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="27"/>
       <c r="B152" s="28"/>
       <c r="C152" s="24" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -9008,13 +9008,13 @@
         <v>237</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F153" s="26" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -9024,13 +9024,13 @@
         <v>241</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F154" s="26" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -9040,29 +9040,29 @@
         <v>245</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F155" s="26" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A156" s="27"/>
       <c r="B156" s="24"/>
       <c r="C156" s="24" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F156" s="26" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9072,29 +9072,29 @@
         <v>278</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F157" s="26" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A158" s="27"/>
       <c r="B158" s="24"/>
       <c r="C158" s="24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F158" s="26" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9104,81 +9104,81 @@
         <v>292</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F159" s="26" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="27"/>
       <c r="B160" s="28"/>
       <c r="C160" s="24" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F160" s="26" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A161" s="27"/>
       <c r="B161" s="28"/>
       <c r="C161" s="24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F161" s="26" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="29" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B162" s="24"/>
       <c r="C162" s="24">
         <v>344</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F162" s="26" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="29" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B163" s="24"/>
       <c r="C163" s="24">
         <v>349</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F163" s="26" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9188,13 +9188,13 @@
         <v>360</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F164" s="26" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9204,13 +9204,13 @@
         <v>364</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F165" s="26" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9220,13 +9220,13 @@
         <v>368</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9236,13 +9236,13 @@
         <v>374</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9252,13 +9252,13 @@
         <v>378</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F168" s="26" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9268,13 +9268,13 @@
         <v>382</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F169" s="26" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9284,13 +9284,13 @@
         <v>394</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F170" s="26" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9300,13 +9300,13 @@
         <v>398</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F171" s="26" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -9316,13 +9316,13 @@
         <v>404</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F172" s="26" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -9332,13 +9332,13 @@
         <v>408</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F173" s="26" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -9348,13 +9348,13 @@
         <v>414</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F174" s="26" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -9364,13 +9364,13 @@
         <v>418</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F175" s="26" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -9380,61 +9380,61 @@
         <v>427</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F176" s="26" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="37"/>
       <c r="B177" s="49"/>
       <c r="C177" s="50" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F177" s="26" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="37"/>
       <c r="B178" s="49"/>
       <c r="C178" s="50" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F178" s="26" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="37"/>
       <c r="B179" s="45"/>
       <c r="C179" s="28" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F179" s="26" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -9444,13 +9444,13 @@
         <v>485</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F180" s="26" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -9460,13 +9460,13 @@
         <v>489</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F181" s="26" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9476,33 +9476,33 @@
         <v>493</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="30" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C183" s="16">
         <v>26</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -9512,13 +9512,13 @@
         <v>30</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F184" s="26" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -9528,13 +9528,13 @@
         <v>34</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F185" s="26" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -9546,65 +9546,65 @@
         <v>54</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F186" s="26" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B187" s="24"/>
       <c r="C187" s="24">
         <v>66</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F187" s="26" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B188" s="24"/>
       <c r="C188" s="24">
         <v>71</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F188" s="26" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="27"/>
       <c r="B189" s="24"/>
       <c r="C189" s="24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F189" s="26" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -9614,13 +9614,13 @@
         <v>106</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F190" s="26" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -9632,31 +9632,31 @@
         <v>135</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F191" s="26" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A192" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B192" s="24"/>
       <c r="C192" s="24">
         <v>140</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F192" s="26" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9666,13 +9666,13 @@
         <v>143</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F193" s="26" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9684,13 +9684,13 @@
         <v>156</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F194" s="26" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9700,31 +9700,31 @@
         <v>159</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F195" s="26" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A196" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B196" s="24"/>
       <c r="C196" s="24">
         <v>171</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F196" s="26" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -9736,13 +9736,13 @@
         <v>174</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F197" s="26" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -9752,13 +9752,13 @@
         <v>181</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F198" s="26" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -9768,13 +9768,13 @@
         <v>185</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F199" s="26" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -9784,13 +9784,13 @@
         <v>189</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F200" s="26" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9802,31 +9802,31 @@
         <v>212</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F201" s="26" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B202" s="24"/>
       <c r="C202" s="24">
         <v>217</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F202" s="26" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9836,13 +9836,13 @@
         <v>220</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9852,31 +9852,31 @@
         <v>223</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F204" s="26" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B205" s="24"/>
       <c r="C205" s="24">
         <v>228</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F205" s="26" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -9888,47 +9888,47 @@
         <v>234</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F206" s="26" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B207" s="24"/>
       <c r="C207" s="24">
         <v>279</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F207" s="26" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="37"/>
       <c r="B208" s="49"/>
       <c r="C208" s="50" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E208" s="25" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F208" s="26" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9938,13 +9938,13 @@
         <v>309</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E209" s="25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F209" s="26" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9954,13 +9954,13 @@
         <v>313</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E210" s="25" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F210" s="26" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9970,29 +9970,29 @@
         <v>317</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E211" s="25" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F211" s="26" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A212" s="27"/>
       <c r="B212" s="28"/>
       <c r="C212" s="24" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E212" s="25" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F212" s="26" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -10000,13 +10000,13 @@
       <c r="B213" s="49"/>
       <c r="C213" s="50"/>
       <c r="D213" s="25" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E213" s="25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F213" s="26" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10014,33 +10014,33 @@
       <c r="B214" s="52"/>
       <c r="C214" s="53"/>
       <c r="D214" s="21" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F214" s="22" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C215" s="16">
         <v>18</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10052,33 +10052,33 @@
         <v>26</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E216" s="21" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F216" s="22" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="46" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B217" s="47" t="s">
+        <v>695</v>
+      </c>
+      <c r="C217" s="48" t="s">
         <v>698</v>
       </c>
-      <c r="C217" s="48" t="s">
-        <v>701</v>
-      </c>
       <c r="D217" s="17" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10088,13 +10088,13 @@
         <v>41</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E218" s="25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F218" s="26" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10104,13 +10104,13 @@
         <v>45</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E219" s="25" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F219" s="26" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10120,13 +10120,13 @@
         <v>49</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E220" s="25" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F220" s="26" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -10136,13 +10136,13 @@
         <v>64</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E221" s="25" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F221" s="26" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -10152,13 +10152,13 @@
         <v>68</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E222" s="25" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F222" s="26" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -10168,13 +10168,13 @@
         <v>72</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E223" s="25" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F223" s="26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -10184,13 +10184,13 @@
         <v>83</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E224" s="25" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F224" s="26" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -10200,13 +10200,13 @@
         <v>87</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E225" s="25" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F225" s="26" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -10216,45 +10216,45 @@
         <v>91</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E226" s="25" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F226" s="26" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A227" s="27"/>
       <c r="B227" s="28"/>
       <c r="C227" s="24" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E227" s="25" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F227" s="26" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="27"/>
       <c r="B228" s="28"/>
       <c r="C228" s="24" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E228" s="25" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F228" s="26" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10264,13 +10264,13 @@
         <v>156</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E229" s="25" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F229" s="26" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10280,13 +10280,13 @@
         <v>160</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E230" s="25" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F230" s="26" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10296,13 +10296,13 @@
         <v>166</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E231" s="25" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F231" s="26" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10312,77 +10312,77 @@
         <v>170</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E232" s="25" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F232" s="26" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="27"/>
       <c r="B233" s="28"/>
       <c r="C233" s="24" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E233" s="25" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F233" s="26" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A234" s="27"/>
       <c r="B234" s="28"/>
       <c r="C234" s="24" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E234" s="25" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F234" s="26" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A235" s="27"/>
       <c r="B235" s="28"/>
       <c r="C235" s="24" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E235" s="25" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F235" s="26" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="27"/>
       <c r="B236" s="28"/>
       <c r="C236" s="24" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E236" s="25" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F236" s="26" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10392,45 +10392,45 @@
         <v>242</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E237" s="25" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F237" s="26" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A238" s="27"/>
       <c r="B238" s="28"/>
       <c r="C238" s="24" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E238" s="25" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F238" s="26" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A239" s="27"/>
       <c r="B239" s="24"/>
       <c r="C239" s="24" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E239" s="25" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F239" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10440,29 +10440,29 @@
         <v>264</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E240" s="25" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F240" s="26" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A241" s="27"/>
       <c r="B241" s="28"/>
       <c r="C241" s="24" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E241" s="25" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F241" s="26" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10472,13 +10472,13 @@
         <v>285</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E242" s="25" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F242" s="26" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10488,61 +10488,61 @@
         <v>289</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E243" s="25" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F243" s="26" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A244" s="27"/>
       <c r="B244" s="28"/>
       <c r="C244" s="24" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E244" s="25" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F244" s="26" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A245" s="54"/>
       <c r="B245" s="50"/>
       <c r="C245" s="24" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E245" s="25" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F245" s="26" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A246" s="54"/>
       <c r="B246" s="50"/>
       <c r="C246" s="24" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E246" s="25" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F246" s="26" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10552,13 +10552,13 @@
         <v>333</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E247" s="25" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F247" s="26" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10568,13 +10568,13 @@
         <v>337</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E248" s="25" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F248" s="26" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10584,29 +10584,29 @@
         <v>341</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E249" s="25" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F249" s="26" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="27"/>
       <c r="B250" s="24"/>
       <c r="C250" s="24" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E250" s="25" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F250" s="26" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10616,13 +10616,13 @@
         <v>355</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F251" s="26" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10632,13 +10632,13 @@
         <v>361</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F252" s="26" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10648,13 +10648,13 @@
         <v>365</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E253" s="25" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F253" s="26" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10664,13 +10664,13 @@
         <v>369</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E254" s="25" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F254" s="26" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10680,13 +10680,13 @@
         <v>375</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E255" s="25" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F255" s="26" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10696,13 +10696,13 @@
         <v>379</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E256" s="25" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F256" s="26" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10712,13 +10712,13 @@
         <v>383</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E257" s="25" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F257" s="26" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10728,13 +10728,13 @@
         <v>389</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E258" s="25" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F258" s="26" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10744,13 +10744,13 @@
         <v>393</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E259" s="25" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F259" s="26" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10760,13 +10760,13 @@
         <v>397</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E260" s="25" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F260" s="26" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -10776,7 +10776,7 @@
         <v>409</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E261" s="25" t="s">
         <v>374</v>
@@ -10789,36 +10789,36 @@
       <c r="A262" s="31"/>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D262" s="21" t="s">
         <v>369</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F262" s="22" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A263" s="30" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C263" s="16">
         <v>33</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -10828,13 +10828,13 @@
         <v>37</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E264" s="25" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F264" s="26" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -10844,13 +10844,13 @@
         <v>41</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E265" s="25" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F265" s="26" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10860,13 +10860,13 @@
         <v>53</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E266" s="25" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F266" s="26" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10876,13 +10876,13 @@
         <v>57</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E267" s="25" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F267" s="26" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10892,13 +10892,13 @@
         <v>61</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E268" s="25" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F268" s="26" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -10908,13 +10908,13 @@
         <v>67</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E269" s="25" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F269" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10924,13 +10924,13 @@
         <v>71</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E270" s="25" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F270" s="26" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10940,65 +10940,65 @@
         <v>75</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E271" s="21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F271" s="22" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A272" s="30" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A273" s="27"/>
       <c r="B273" s="28"/>
       <c r="C273" s="24" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E273" s="25" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F273" s="26" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A274" s="27"/>
       <c r="B274" s="28"/>
       <c r="C274" s="24" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E274" s="25" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F274" s="26" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -11008,13 +11008,13 @@
         <v>91</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E275" s="25" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F275" s="26" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -11024,13 +11024,13 @@
         <v>95</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E276" s="25" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F276" s="26" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -11040,33 +11040,33 @@
         <v>99</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E277" s="21" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F277" s="22" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="15" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C278" s="16">
         <v>10</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F278" s="18" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -11076,13 +11076,13 @@
         <v>14</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E279" s="25" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F279" s="26" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -11092,13 +11092,13 @@
         <v>26</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E280" s="25" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F280" s="26" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -11110,13 +11110,13 @@
         <v>31</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E281" s="25" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F281" s="26" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11126,13 +11126,13 @@
         <v>34</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E282" s="25" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F282" s="26" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -11142,33 +11142,33 @@
         <v>37</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E283" s="21" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F283" s="22" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B284" s="16" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C284" s="16">
         <v>8</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E284" s="17" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F284" s="18" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11180,13 +11180,13 @@
         <v>11</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E285" s="25" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F285" s="26" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11196,29 +11196,29 @@
         <v>36</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E286" s="25" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F286" s="26" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="27"/>
       <c r="B287" s="28"/>
       <c r="C287" s="24" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E287" s="25" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F287" s="26" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11230,13 +11230,13 @@
         <v>73</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E288" s="25" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F288" s="26" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11246,13 +11246,13 @@
         <v>80</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E289" s="25" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F289" s="26" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11262,13 +11262,13 @@
         <v>84</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E290" s="25" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F290" s="26" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11278,13 +11278,13 @@
         <v>88</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E291" s="25" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F291" s="26" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11296,47 +11296,47 @@
         <v>94</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E292" s="25" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F292" s="26" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="29" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B293" s="24"/>
       <c r="C293" s="24" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E293" s="25" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F293" s="26" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="27"/>
       <c r="B294" s="28"/>
       <c r="C294" s="24" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E294" s="25" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F294" s="26" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -11348,29 +11348,29 @@
         <v>182</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E295" s="25" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F295" s="26" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="27"/>
       <c r="B296" s="28"/>
       <c r="C296" s="24" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E296" s="25" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F296" s="26" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11380,13 +11380,13 @@
         <v>225</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E297" s="25" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F297" s="26" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11396,29 +11396,29 @@
         <v>229</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E298" s="25" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F298" s="26" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="27"/>
       <c r="B299" s="28"/>
       <c r="C299" s="24" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E299" s="25" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F299" s="26" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11430,13 +11430,13 @@
         <v>267</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E300" s="25" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F300" s="26" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -11446,13 +11446,13 @@
         <v>270</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E301" s="25" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F301" s="26" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11462,49 +11462,49 @@
         <v>273</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E302" s="25" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F302" s="26" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="32"/>
       <c r="B303" s="33"/>
       <c r="C303" s="20" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E303" s="21" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F303" s="22" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" s="15" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C304" s="16">
         <v>24</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F304" s="18" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -11516,13 +11516,13 @@
         <v>27</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E305" s="25" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F305" s="26" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11532,13 +11532,13 @@
         <v>88</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E306" s="25" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F306" s="26" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11548,13 +11548,13 @@
         <v>164</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E307" s="25" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F307" s="26" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -11564,65 +11564,65 @@
         <v>167</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F308" s="22" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="30" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B309" s="34"/>
       <c r="C309" s="16" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E309" s="17" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F309" s="18" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="29" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B310" s="24"/>
       <c r="C310" s="24" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E310" s="25" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F310" s="26" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="27"/>
       <c r="B311" s="28"/>
       <c r="C311" s="24" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E311" s="25" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F311" s="26" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -11634,13 +11634,13 @@
         <v>101</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E312" s="25" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F312" s="26" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11650,29 +11650,29 @@
         <v>104</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E313" s="25" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F313" s="26" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A314" s="29"/>
       <c r="B314" s="45"/>
       <c r="C314" s="24" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E314" s="25" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F314" s="26" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11682,13 +11682,13 @@
         <v>152</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E315" s="25" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F315" s="26" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -11698,13 +11698,13 @@
         <v>181</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E316" s="25" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="F316" s="26" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -11714,13 +11714,13 @@
         <v>188</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E317" s="25" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="F317" s="26" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -11730,13 +11730,13 @@
         <v>192</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E318" s="25" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F318" s="26" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -11746,13 +11746,13 @@
         <v>196</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E319" s="25" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F319" s="26" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -11762,45 +11762,45 @@
         <v>217</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E320" s="25" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F320" s="26" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="27"/>
       <c r="B321" s="28"/>
       <c r="C321" s="24" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D321" s="25" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E321" s="25" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F321" s="26" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A322" s="27"/>
       <c r="B322" s="28"/>
       <c r="C322" s="24" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D322" s="25" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E322" s="25" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F322" s="26" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11810,13 +11810,13 @@
         <v>280</v>
       </c>
       <c r="D323" s="25" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E323" s="25" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F323" s="26" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11826,13 +11826,13 @@
         <v>284</v>
       </c>
       <c r="D324" s="25" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E324" s="25" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F324" s="26" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11842,13 +11842,13 @@
         <v>288</v>
       </c>
       <c r="D325" s="25" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E325" s="25" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F325" s="26" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -11860,13 +11860,13 @@
         <v>330</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E326" s="25" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F326" s="26" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11876,33 +11876,33 @@
         <v>333</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E327" s="21" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F327" s="22" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A328" s="30" t="s">
-        <v>1058</v>
+        <v>1891</v>
       </c>
       <c r="B328" s="55" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C328" s="16">
         <v>42</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E328" s="17" t="s">
-        <v>1074</v>
+        <v>1892</v>
       </c>
       <c r="F328" s="18" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -11912,13 +11912,13 @@
         <v>46</v>
       </c>
       <c r="D329" s="25" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="E329" s="25" t="s">
-        <v>1075</v>
+        <v>1893</v>
       </c>
       <c r="F329" s="26" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -11928,13 +11928,13 @@
         <v>50</v>
       </c>
       <c r="D330" s="25" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E330" s="25" t="s">
-        <v>1076</v>
+        <v>1894</v>
       </c>
       <c r="F330" s="26" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -11944,63 +11944,63 @@
         <v>90</v>
       </c>
       <c r="D331" s="25" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E331" s="25" t="s">
-        <v>1077</v>
+        <v>1895</v>
       </c>
       <c r="F331" s="26" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="27"/>
       <c r="B332" s="28"/>
       <c r="C332" s="24" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D332" s="25" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E332" s="25" t="s">
-        <v>1078</v>
+        <v>1896</v>
       </c>
       <c r="F332" s="26" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A333" s="27"/>
       <c r="B333" s="28"/>
       <c r="C333" s="24" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D333" s="25" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E333" s="25" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="F333" s="26" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B334" s="24"/>
       <c r="C334" s="24">
         <v>125</v>
       </c>
       <c r="D334" s="25" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E334" s="25" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F334" s="26" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12010,13 +12010,13 @@
         <v>128</v>
       </c>
       <c r="D335" s="25" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E335" s="25" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="F335" s="26" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12026,13 +12026,13 @@
         <v>131</v>
       </c>
       <c r="D336" s="25" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E336" s="25" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="F336" s="26" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12042,67 +12042,67 @@
         <v>134</v>
       </c>
       <c r="D337" s="25" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E337" s="25" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="F337" s="26" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="27"/>
       <c r="B338" s="28"/>
       <c r="C338" s="24" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D338" s="25" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E338" s="25" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="F338" s="26" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="19" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20">
         <v>155</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E339" s="21" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="F339" s="22" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A340" s="30" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="C340" s="16">
         <v>28</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="E340" s="17" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="F340" s="18" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12112,13 +12112,13 @@
         <v>32</v>
       </c>
       <c r="D341" s="25" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="E341" s="25" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="F341" s="26" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12128,31 +12128,31 @@
         <v>36</v>
       </c>
       <c r="D342" s="25" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="E342" s="25" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="F342" s="26" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B343" s="24"/>
       <c r="C343" s="24">
         <v>42</v>
       </c>
       <c r="D343" s="25" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="E343" s="25" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="F343" s="26" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12162,13 +12162,13 @@
         <v>56</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="E344" s="25" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="F344" s="26" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12178,13 +12178,13 @@
         <v>60</v>
       </c>
       <c r="D345" s="25" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="E345" s="25" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="F345" s="26" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12194,13 +12194,13 @@
         <v>66</v>
       </c>
       <c r="D346" s="25" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="E346" s="25" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="F346" s="26" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12210,13 +12210,13 @@
         <v>70</v>
       </c>
       <c r="D347" s="25" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="E347" s="25" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="F347" s="26" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12226,13 +12226,13 @@
         <v>95</v>
       </c>
       <c r="D348" s="25" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="E348" s="25" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="F348" s="26" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12242,13 +12242,13 @@
         <v>99</v>
       </c>
       <c r="D349" s="25" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="E349" s="25" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="F349" s="26" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -12258,13 +12258,13 @@
         <v>103</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="E350" s="25" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="F350" s="26" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -12274,23 +12274,23 @@
         <v>118</v>
       </c>
       <c r="D351" s="25" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="E351" s="25" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="F351" s="26" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="32"/>
       <c r="B352" s="33"/>
       <c r="C352" s="20" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="D352" s="21" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="E352" s="21" t="s">
         <v>374</v>
@@ -12301,22 +12301,22 @@
     </row>
     <row r="353" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A353" s="30" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="C353" s="16">
         <v>10</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E353" s="17" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="F353" s="18" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -12326,13 +12326,13 @@
         <v>14</v>
       </c>
       <c r="D354" s="25" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="E354" s="25" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="F354" s="26" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -12342,13 +12342,13 @@
         <v>18</v>
       </c>
       <c r="D355" s="25" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E355" s="25" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="F355" s="26" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12358,13 +12358,13 @@
         <v>24</v>
       </c>
       <c r="D356" s="25" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="E356" s="25" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="F356" s="26" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12374,13 +12374,13 @@
         <v>28</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="E357" s="25" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="F357" s="26" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -12390,69 +12390,69 @@
         <v>32</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="E358" s="21" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="F358" s="22" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A359" s="30" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B359" s="34" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D359" s="17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E359" s="17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F359" s="18" t="s">
         <v>1153</v>
-      </c>
-      <c r="B359" s="34" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C359" s="16" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D359" s="17" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E359" s="17" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F359" s="18" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="32"/>
       <c r="B360" s="33"/>
       <c r="C360" s="20" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="E360" s="21" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="F360" s="22" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="15" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="B361" s="16" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="C361" s="16">
         <v>35</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="E361" s="17" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="F361" s="18" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12464,13 +12464,13 @@
         <v>43</v>
       </c>
       <c r="D362" s="25" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="E362" s="25" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="F362" s="26" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12480,31 +12480,31 @@
         <v>46</v>
       </c>
       <c r="D363" s="25" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="E363" s="25" t="s">
-        <v>1895</v>
+        <v>1884</v>
       </c>
       <c r="F363" s="26" t="s">
-        <v>1896</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B364" s="24"/>
       <c r="C364" s="24">
         <v>51</v>
       </c>
       <c r="D364" s="25" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="E364" s="25" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="F364" s="26" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12514,13 +12514,13 @@
         <v>54</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="E365" s="25" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="F365" s="26" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -12548,13 +12548,13 @@
         <v>81</v>
       </c>
       <c r="D367" s="25" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="E367" s="25" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="F367" s="26" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12564,31 +12564,31 @@
         <v>84</v>
       </c>
       <c r="D368" s="25" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="E368" s="25" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="F368" s="26" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B369" s="24"/>
       <c r="C369" s="24">
         <v>89</v>
       </c>
       <c r="D369" s="25" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="E369" s="25" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="F369" s="26" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12598,13 +12598,13 @@
         <v>92</v>
       </c>
       <c r="D370" s="25" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="E370" s="25" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="F370" s="26" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -12616,31 +12616,31 @@
         <v>105</v>
       </c>
       <c r="D371" s="25" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="E371" s="25" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="F371" s="26" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A372" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B372" s="24"/>
       <c r="C372" s="24">
         <v>110</v>
       </c>
       <c r="D372" s="25" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="E372" s="25" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="F372" s="26" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -12650,13 +12650,13 @@
         <v>113</v>
       </c>
       <c r="D373" s="25" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="E373" s="25" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="F373" s="26" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -12666,13 +12666,13 @@
         <v>131</v>
       </c>
       <c r="D374" s="25" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="E374" s="25" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="F374" s="26" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12682,13 +12682,13 @@
         <v>134</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="E375" s="25" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="F375" s="26" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12698,13 +12698,13 @@
         <v>137</v>
       </c>
       <c r="D376" s="25" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="E376" s="25" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="F376" s="26" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -12714,13 +12714,13 @@
         <v>140</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="E377" s="25" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="F377" s="26" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12730,13 +12730,13 @@
         <v>156</v>
       </c>
       <c r="D378" s="25" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="E378" s="25" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="F378" s="26" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12746,13 +12746,13 @@
         <v>159</v>
       </c>
       <c r="D379" s="25" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="E379" s="25" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="F379" s="26" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -12764,31 +12764,31 @@
         <v>174</v>
       </c>
       <c r="D380" s="25" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="E380" s="25" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="F380" s="26" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B381" s="24"/>
       <c r="C381" s="24">
         <v>183</v>
       </c>
       <c r="D381" s="25" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="E381" s="25" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="F381" s="26" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12798,13 +12798,13 @@
         <v>191</v>
       </c>
       <c r="D382" s="25" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="E382" s="25" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="F382" s="26" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -12816,31 +12816,31 @@
         <v>203</v>
       </c>
       <c r="D383" s="25" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="E383" s="25" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="F383" s="26" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B384" s="24"/>
       <c r="C384" s="24">
         <v>226</v>
       </c>
       <c r="D384" s="25" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="E384" s="25" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="F384" s="26" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12850,13 +12850,13 @@
         <v>256</v>
       </c>
       <c r="D385" s="25" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="E385" s="25" t="s">
-        <v>1893</v>
+        <v>1882</v>
       </c>
       <c r="F385" s="26" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12866,13 +12866,13 @@
         <v>259</v>
       </c>
       <c r="D386" s="25" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E386" s="25" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F386" s="26" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -12884,113 +12884,113 @@
         <v>268</v>
       </c>
       <c r="D387" s="25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E387" s="25" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F387" s="26" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="27"/>
       <c r="B388" s="28"/>
       <c r="C388" s="24" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="D388" s="25" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="E388" s="25" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="F388" s="26" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A389" s="27"/>
       <c r="B389" s="28"/>
       <c r="C389" s="24" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="D389" s="25" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="E389" s="25" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="F389" s="26" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B390" s="24"/>
       <c r="C390" s="24">
         <v>341</v>
       </c>
       <c r="D390" s="25" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="E390" s="25" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="F390" s="26" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A391" s="27"/>
       <c r="B391" s="28"/>
       <c r="C391" s="24" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="E391" s="25" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="F391" s="26" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="27"/>
       <c r="B392" s="28"/>
       <c r="C392" s="24" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="D392" s="25" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="E392" s="25" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="F392" s="26" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A393" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B393" s="24"/>
       <c r="C393" s="24">
         <v>400</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="E393" s="25" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="F393" s="26" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -13000,13 +13000,13 @@
         <v>414</v>
       </c>
       <c r="D394" s="25" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="E394" s="25" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="F394" s="26" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -13016,13 +13016,13 @@
         <v>423</v>
       </c>
       <c r="D395" s="25" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="E395" s="25" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="F395" s="26" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13032,47 +13032,47 @@
         <v>426</v>
       </c>
       <c r="D396" s="25" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="E396" s="25" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="F396" s="26" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="27"/>
       <c r="B397" s="28"/>
       <c r="C397" s="24" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="E397" s="25" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="F397" s="26" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A398" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B398" s="24"/>
       <c r="C398" s="24">
         <v>447</v>
       </c>
       <c r="D398" s="25" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="E398" s="25" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="F398" s="26" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13082,13 +13082,13 @@
         <v>450</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="E399" s="25" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="F399" s="26" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13098,79 +13098,79 @@
         <v>453</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="E400" s="25" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="F400" s="26" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="27"/>
       <c r="B401" s="28"/>
       <c r="C401" s="24" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="D401" s="25" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="E401" s="25" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="F401" s="26" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="27"/>
       <c r="B402" s="28"/>
       <c r="C402" s="24" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="D402" s="25" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="E402" s="25" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="F402" s="26" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A403" s="27"/>
       <c r="B403" s="28"/>
       <c r="C403" s="24" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="D403" s="25" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="E403" s="25" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="F403" s="26" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A404" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B404" s="24"/>
       <c r="C404" s="24">
         <v>518</v>
       </c>
       <c r="D404" s="25" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="E404" s="25" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="F404" s="26" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13180,47 +13180,47 @@
         <v>521</v>
       </c>
       <c r="D405" s="25" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="E405" s="25" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="27"/>
       <c r="B406" s="28"/>
       <c r="C406" s="24" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="D406" s="25" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="E406" s="25" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="F406" s="26" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A407" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B407" s="24"/>
       <c r="C407" s="24">
         <v>551</v>
       </c>
       <c r="D407" s="25" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="E407" s="25" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="F407" s="26" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13230,85 +13230,85 @@
         <v>554</v>
       </c>
       <c r="D408" s="21" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="E408" s="21" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="F408" s="22" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A409" s="30" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B409" s="34" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C409" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D409" s="17" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E409" s="17" t="s">
         <v>1300</v>
       </c>
-      <c r="B409" s="34" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C409" s="16" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D409" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E409" s="17" t="s">
-        <v>1309</v>
-      </c>
       <c r="F409" s="18" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B410" s="24"/>
       <c r="C410" s="24">
         <v>55</v>
       </c>
       <c r="D410" s="25" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="E410" s="25" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="F410" s="26" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A411" s="27"/>
       <c r="B411" s="28"/>
       <c r="C411" s="24" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="D411" s="25" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="F411" s="26" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A412" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B412" s="24"/>
       <c r="C412" s="24">
         <v>76</v>
       </c>
       <c r="D412" s="25" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="E412" s="25" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="F412" s="26" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13318,13 +13318,13 @@
         <v>79</v>
       </c>
       <c r="D413" s="25" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="E413" s="25" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="F413" s="26" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13334,49 +13334,49 @@
         <v>82</v>
       </c>
       <c r="D414" s="21" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="E414" s="21" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="F414" s="22" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A415" s="15" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="C415" s="16">
         <v>20</v>
       </c>
       <c r="D415" s="17" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="E415" s="17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F415" s="18" t="s">
         <v>1336</v>
-      </c>
-      <c r="F415" s="18" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="27"/>
       <c r="B416" s="24"/>
       <c r="C416" s="24" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="D416" s="25" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="E416" s="25" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F416" s="26" t="s">
         <v>1337</v>
-      </c>
-      <c r="F416" s="26" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -13386,29 +13386,29 @@
         <v>66</v>
       </c>
       <c r="D417" s="25" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="E417" s="25" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F417" s="26" t="s">
         <v>1338</v>
-      </c>
-      <c r="F417" s="26" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A418" s="27"/>
       <c r="B418" s="24"/>
       <c r="C418" s="24" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="D418" s="25" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="E418" s="25" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F418" s="26" t="s">
         <v>1339</v>
-      </c>
-      <c r="F418" s="26" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -13418,13 +13418,13 @@
         <v>80</v>
       </c>
       <c r="D419" s="25" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="E419" s="25" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F419" s="26" t="s">
         <v>1340</v>
-      </c>
-      <c r="F419" s="26" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -13436,45 +13436,45 @@
         <v>90</v>
       </c>
       <c r="D420" s="25" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="E420" s="25" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F420" s="26" t="s">
         <v>1341</v>
-      </c>
-      <c r="F420" s="26" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="27"/>
       <c r="B421" s="28"/>
       <c r="C421" s="24" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="D421" s="25" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="E421" s="25" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F421" s="26" t="s">
         <v>1342</v>
-      </c>
-      <c r="F421" s="26" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A422" s="27"/>
       <c r="B422" s="28"/>
       <c r="C422" s="24" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D422" s="25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E422" s="25" t="s">
         <v>1334</v>
       </c>
-      <c r="D422" s="25" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E422" s="25" t="s">
+      <c r="F422" s="26" t="s">
         <v>1343</v>
-      </c>
-      <c r="F422" s="26" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13486,51 +13486,51 @@
         <v>125</v>
       </c>
       <c r="D423" s="21" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E423" s="21" t="s">
         <v>1335</v>
       </c>
-      <c r="E423" s="21" t="s">
+      <c r="F423" s="22" t="s">
         <v>1344</v>
-      </c>
-      <c r="F423" s="22" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A424" s="15" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="C424" s="16">
         <v>13</v>
       </c>
       <c r="D424" s="17" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="E424" s="17" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="F424" s="18" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="29" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="B425" s="24"/>
       <c r="C425" s="24">
         <v>16</v>
       </c>
       <c r="D425" s="25" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="E425" s="25" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="F425" s="26" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13540,13 +13540,13 @@
         <v>19</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="E426" s="25" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="F426" s="26" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13556,13 +13556,13 @@
         <v>22</v>
       </c>
       <c r="D427" s="25" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="E427" s="25" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="F427" s="26" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13572,13 +13572,13 @@
         <v>56</v>
       </c>
       <c r="D428" s="25" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="E428" s="25" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="F428" s="26" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -13588,49 +13588,49 @@
         <v>64</v>
       </c>
       <c r="D429" s="25" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="E429" s="25" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="F429" s="26" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B430" s="24"/>
       <c r="C430" s="24">
         <v>76</v>
       </c>
       <c r="D430" s="25" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="E430" s="25" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="F430" s="26" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B431" s="24"/>
       <c r="C431" s="24">
         <v>140</v>
       </c>
       <c r="D431" s="25" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="E431" s="25" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="F431" s="26" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -13642,13 +13642,13 @@
         <v>171</v>
       </c>
       <c r="D432" s="25" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="E432" s="25" t="s">
-        <v>1399</v>
+        <v>1897</v>
       </c>
       <c r="F432" s="26" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -13658,13 +13658,13 @@
         <v>196</v>
       </c>
       <c r="D433" s="25" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="E433" s="25" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="F433" s="26" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13674,31 +13674,31 @@
         <v>199</v>
       </c>
       <c r="D434" s="25" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="E434" s="25" t="s">
-        <v>1401</v>
+        <v>1898</v>
       </c>
       <c r="F434" s="26" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A435" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B435" s="24"/>
       <c r="C435" s="24">
         <v>207</v>
       </c>
       <c r="D435" s="25" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="E435" s="25" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="F435" s="26" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13708,13 +13708,13 @@
         <v>222</v>
       </c>
       <c r="D436" s="25" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="E436" s="25" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="F436" s="26" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13724,13 +13724,13 @@
         <v>226</v>
       </c>
       <c r="D437" s="25" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="E437" s="25" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="F437" s="26" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13740,31 +13740,31 @@
         <v>230</v>
       </c>
       <c r="D438" s="25" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="E438" s="25" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="F438" s="26" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B439" s="24"/>
       <c r="C439" s="24">
         <v>240</v>
       </c>
       <c r="D439" s="25" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="E439" s="25" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="F439" s="26" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -13774,13 +13774,13 @@
         <v>245</v>
       </c>
       <c r="D440" s="25" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="E440" s="25" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="F440" s="26" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13790,13 +13790,13 @@
         <v>252</v>
       </c>
       <c r="D441" s="25" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="E441" s="25" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
       <c r="F441" s="26" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -13806,13 +13806,13 @@
         <v>264</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="E442" s="25" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
       <c r="F442" s="26" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13822,13 +13822,13 @@
         <v>268</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="E443" s="25" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="F443" s="26" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -13838,31 +13838,31 @@
         <v>272</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="E444" s="25" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="F444" s="26" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A445" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B445" s="24"/>
       <c r="C445" s="24">
         <v>293</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="E445" s="25" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="F445" s="26" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13872,13 +13872,13 @@
         <v>296</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="E446" s="25" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="F446" s="26" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13888,13 +13888,13 @@
         <v>307</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="E447" s="25" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="F447" s="26" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -13906,13 +13906,13 @@
         <v>321</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="E448" s="25" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="F448" s="26" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13922,31 +13922,31 @@
         <v>333</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="E449" s="25" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="F449" s="26" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="29" t="s">
-        <v>388</v>
+        <v>1890</v>
       </c>
       <c r="B450" s="24"/>
       <c r="C450" s="24">
         <v>338</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="E450" s="25" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="F450" s="26" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13956,13 +13956,13 @@
         <v>347</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="E451" s="25" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="F451" s="26" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13972,13 +13972,13 @@
         <v>352</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="E452" s="25" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="F452" s="26" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13988,13 +13988,13 @@
         <v>355</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="E453" s="25" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="F453" s="26" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14004,13 +14004,13 @@
         <v>358</v>
       </c>
       <c r="D454" s="25" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="E454" s="25" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="F454" s="26" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14020,13 +14020,13 @@
         <v>371</v>
       </c>
       <c r="D455" s="25" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="E455" s="25" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="F455" s="26" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14036,13 +14036,13 @@
         <v>374</v>
       </c>
       <c r="D456" s="25" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="E456" s="25" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="F456" s="26" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -14052,33 +14052,33 @@
         <v>377</v>
       </c>
       <c r="D457" s="21" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="E457" s="21" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="F457" s="22" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A458" s="15" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="C458" s="16">
         <v>14</v>
       </c>
       <c r="D458" s="17" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="E458" s="17" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="F458" s="18" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -14090,13 +14090,13 @@
         <v>17</v>
       </c>
       <c r="D459" s="25" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="E459" s="25" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="F459" s="26" t="s">
-        <v>1523</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14106,13 +14106,13 @@
         <v>20</v>
       </c>
       <c r="D460" s="25" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="E460" s="25" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="F460" s="26" t="s">
-        <v>1524</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -14122,13 +14122,13 @@
         <v>25</v>
       </c>
       <c r="D461" s="25" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="E461" s="25" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="F461" s="26" t="s">
-        <v>1525</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -14138,13 +14138,13 @@
         <v>30</v>
       </c>
       <c r="D462" s="25" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="E462" s="25" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="F462" s="26" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14154,13 +14154,13 @@
         <v>33</v>
       </c>
       <c r="D463" s="25" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="E463" s="25" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="F463" s="26" t="s">
-        <v>1527</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14170,13 +14170,13 @@
         <v>36</v>
       </c>
       <c r="D464" s="25" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="E464" s="25" t="s">
-        <v>1499</v>
+        <v>1488</v>
       </c>
       <c r="F464" s="26" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -14186,13 +14186,13 @@
         <v>39</v>
       </c>
       <c r="D465" s="25" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="E465" s="25" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="F465" s="26" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14202,13 +14202,13 @@
         <v>42</v>
       </c>
       <c r="D466" s="25" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="E466" s="25" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="F466" s="26" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -14218,13 +14218,13 @@
         <v>65</v>
       </c>
       <c r="D467" s="25" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="E467" s="25" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="F467" s="26" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -14234,13 +14234,13 @@
         <v>69</v>
       </c>
       <c r="D468" s="25" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="E468" s="25" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="F468" s="26" t="s">
-        <v>1532</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14250,29 +14250,29 @@
         <v>73</v>
       </c>
       <c r="D469" s="25" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="E469" s="25" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="F469" s="26" t="s">
-        <v>1533</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="27"/>
       <c r="B470" s="24"/>
       <c r="C470" s="24" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
       <c r="D470" s="25" t="s">
-        <v>1469</v>
+        <v>1458</v>
       </c>
       <c r="E470" s="25" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="F470" s="26" t="s">
-        <v>1534</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -14282,13 +14282,13 @@
         <v>90</v>
       </c>
       <c r="D471" s="25" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
       <c r="E471" s="25" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="F471" s="26" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14300,13 +14300,13 @@
         <v>96</v>
       </c>
       <c r="D472" s="25" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="E472" s="25" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="F472" s="26" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14316,29 +14316,29 @@
         <v>100</v>
       </c>
       <c r="D473" s="25" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
       <c r="E473" s="25" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="F473" s="26" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="27"/>
       <c r="B474" s="28"/>
       <c r="C474" s="24" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="D474" s="25" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="E474" s="25" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="F474" s="26" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14348,13 +14348,13 @@
         <v>155</v>
       </c>
       <c r="D475" s="25" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
       <c r="E475" s="25" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="F475" s="26" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14364,13 +14364,13 @@
         <v>159</v>
       </c>
       <c r="D476" s="25" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
       <c r="E476" s="25" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="F476" s="26" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14380,109 +14380,109 @@
         <v>163</v>
       </c>
       <c r="D477" s="25" t="s">
-        <v>1478</v>
+        <v>1467</v>
       </c>
       <c r="E477" s="25" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="F477" s="26" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A478" s="27"/>
       <c r="B478" s="28"/>
       <c r="C478" s="24" t="s">
-        <v>1480</v>
+        <v>1469</v>
       </c>
       <c r="D478" s="25" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
       <c r="E478" s="25" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="F478" s="26" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="27"/>
       <c r="B479" s="28"/>
       <c r="C479" s="24" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="D479" s="25" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="E479" s="25" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="F479" s="26" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="27"/>
       <c r="B480" s="28"/>
       <c r="C480" s="24" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="D480" s="25" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="E480" s="25" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="F480" s="26" t="s">
-        <v>1544</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A481" s="27"/>
       <c r="B481" s="28"/>
       <c r="C481" s="24" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="D481" s="25" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="E481" s="25" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="F481" s="26" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="54"/>
       <c r="B482" s="50"/>
       <c r="C482" s="24" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
       <c r="D482" s="25" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="E482" s="25" t="s">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="F482" s="26" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="54"/>
       <c r="B483" s="50"/>
       <c r="C483" s="24" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="D483" s="25" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
       <c r="E483" s="25" t="s">
-        <v>1518</v>
+        <v>1507</v>
       </c>
       <c r="F483" s="26" t="s">
-        <v>1547</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14492,13 +14492,13 @@
         <v>263</v>
       </c>
       <c r="D484" s="25" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="E484" s="25" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="F484" s="26" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14508,13 +14508,13 @@
         <v>267</v>
       </c>
       <c r="D485" s="25" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="E485" s="25" t="s">
-        <v>1520</v>
+        <v>1509</v>
       </c>
       <c r="F485" s="26" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -14524,13 +14524,13 @@
         <v>274</v>
       </c>
       <c r="D486" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E486" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F486" s="26" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14540,47 +14540,47 @@
         <v>283</v>
       </c>
       <c r="D487" s="21" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="E487" s="21" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
       <c r="F487" s="22" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A488" s="59" t="s">
-        <v>1551</v>
+        <v>1540</v>
       </c>
       <c r="B488" s="48"/>
       <c r="C488" s="16" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="D488" s="17" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
       <c r="E488" s="17" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
       <c r="F488" s="18" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="54"/>
       <c r="B489" s="50"/>
       <c r="C489" s="24" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="D489" s="25" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="E489" s="25" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="F489" s="26" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14590,13 +14590,13 @@
         <v>35</v>
       </c>
       <c r="D490" s="25" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="E490" s="25" t="s">
-        <v>1573</v>
+        <v>1562</v>
       </c>
       <c r="F490" s="26" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14606,29 +14606,29 @@
         <v>39</v>
       </c>
       <c r="D491" s="25" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="E491" s="25" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
       <c r="F491" s="26" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="54"/>
       <c r="B492" s="50"/>
       <c r="C492" s="24" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
       <c r="D492" s="25" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="E492" s="25" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="F492" s="26" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -14638,13 +14638,13 @@
         <v>70</v>
       </c>
       <c r="D493" s="25" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="E493" s="25" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="F493" s="26" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -14654,13 +14654,13 @@
         <v>74</v>
       </c>
       <c r="D494" s="25" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
       <c r="E494" s="25" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
       <c r="F494" s="26" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -14670,29 +14670,29 @@
         <v>78</v>
       </c>
       <c r="D495" s="25" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
       <c r="E495" s="25" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="F495" s="26" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A496" s="27"/>
       <c r="B496" s="28"/>
       <c r="C496" s="24" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D496" s="25" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
       <c r="E496" s="25" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="F496" s="26" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -14702,13 +14702,13 @@
         <v>116</v>
       </c>
       <c r="D497" s="25" t="s">
-        <v>1563</v>
+        <v>1552</v>
       </c>
       <c r="E497" s="25" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="F497" s="26" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14718,13 +14718,13 @@
         <v>120</v>
       </c>
       <c r="D498" s="25" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="E498" s="25" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="F498" s="26" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -14734,29 +14734,29 @@
         <v>124</v>
       </c>
       <c r="D499" s="25" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="E499" s="25" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
       <c r="F499" s="26" t="s">
-        <v>1599</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A500" s="27"/>
       <c r="B500" s="24"/>
       <c r="C500" s="24" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="D500" s="25" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="E500" s="25" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="F500" s="26" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14766,29 +14766,29 @@
         <v>138</v>
       </c>
       <c r="D501" s="25" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="E501" s="25" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="F501" s="26" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="27"/>
       <c r="B502" s="24"/>
       <c r="C502" s="24" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="D502" s="25" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="E502" s="25" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="F502" s="26" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14798,65 +14798,65 @@
         <v>178</v>
       </c>
       <c r="D503" s="25" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="E503" s="25" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
       <c r="F503" s="26" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A504" s="32"/>
       <c r="B504" s="33"/>
       <c r="C504" s="20" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D504" s="21" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="E504" s="21" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="F504" s="22" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A505" s="30" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="B505" s="34" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="C505" s="16" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="D505" s="17" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="E505" s="17" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="F505" s="18" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A506" s="27"/>
       <c r="B506" s="28"/>
       <c r="C506" s="24" t="s">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="D506" s="25" t="s">
-        <v>1609</v>
+        <v>1598</v>
       </c>
       <c r="E506" s="25" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
       <c r="F506" s="26" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -14866,13 +14866,13 @@
         <v>76</v>
       </c>
       <c r="D507" s="25" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="E507" s="25" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
       <c r="F507" s="26" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -14882,13 +14882,13 @@
         <v>80</v>
       </c>
       <c r="D508" s="25" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="E508" s="25" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="F508" s="26" t="s">
-        <v>1651</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -14898,61 +14898,61 @@
         <v>84</v>
       </c>
       <c r="D509" s="25" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="E509" s="25" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="F509" s="26" t="s">
-        <v>1652</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A510" s="27"/>
       <c r="B510" s="28"/>
       <c r="C510" s="24" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="D510" s="25" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="E510" s="25" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="F510" s="26" t="s">
-        <v>1653</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="27"/>
       <c r="B511" s="28"/>
       <c r="C511" s="24" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D511" s="25" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="E511" s="25" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="F511" s="26" t="s">
-        <v>1654</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A512" s="27"/>
       <c r="B512" s="24"/>
       <c r="C512" s="24" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="D512" s="25" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="E512" s="25" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="F512" s="26" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14962,13 +14962,13 @@
         <v>126</v>
       </c>
       <c r="D513" s="25" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="E513" s="25" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="F513" s="26" t="s">
-        <v>1656</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14978,13 +14978,13 @@
         <v>132</v>
       </c>
       <c r="D514" s="25" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="E514" s="25" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="F514" s="26" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14994,29 +14994,29 @@
         <v>136</v>
       </c>
       <c r="D515" s="25" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="E515" s="25" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
       <c r="F515" s="26" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="54"/>
       <c r="B516" s="50"/>
       <c r="C516" s="24" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D516" s="25" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
       <c r="E516" s="25" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="F516" s="26" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15026,13 +15026,13 @@
         <v>154</v>
       </c>
       <c r="D517" s="25" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="E517" s="25" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="F517" s="26" t="s">
-        <v>1660</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15042,97 +15042,97 @@
         <v>158</v>
       </c>
       <c r="D518" s="25" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="E518" s="25" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
       <c r="F518" s="26" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="54"/>
       <c r="B519" s="50"/>
       <c r="C519" s="24" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
       <c r="D519" s="25" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="E519" s="25" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="F519" s="26" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="27"/>
       <c r="B520" s="28"/>
       <c r="C520" s="24" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="D520" s="25" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
       <c r="E520" s="25" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="F520" s="26" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A521" s="27"/>
       <c r="B521" s="28"/>
       <c r="C521" s="24" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
       <c r="D521" s="25" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
       <c r="E521" s="25" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="F521" s="26" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="32"/>
       <c r="B522" s="33"/>
       <c r="C522" s="20" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="D522" s="21" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="E522" s="21" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="F522" s="22" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A523" s="30" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="B523" s="55" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="C523" s="16">
         <v>29</v>
       </c>
       <c r="D523" s="17" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E523" s="17" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
       <c r="F523" s="18" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -15142,13 +15142,13 @@
         <v>33</v>
       </c>
       <c r="D524" s="25" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E524" s="25" t="s">
-        <v>1721</v>
+        <v>1710</v>
       </c>
       <c r="F524" s="26" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -15158,45 +15158,45 @@
         <v>37</v>
       </c>
       <c r="D525" s="25" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E525" s="25" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
       <c r="F525" s="26" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="27"/>
       <c r="B526" s="28"/>
       <c r="C526" s="24" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="D526" s="25" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="E526" s="25" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
       <c r="F526" s="26" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A527" s="27"/>
       <c r="B527" s="24"/>
       <c r="C527" s="24" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
       <c r="D527" s="25" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
       <c r="E527" s="25" t="s">
-        <v>1724</v>
+        <v>1713</v>
       </c>
       <c r="F527" s="26" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15206,61 +15206,61 @@
         <v>65</v>
       </c>
       <c r="D528" s="25" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
       <c r="E528" s="25" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="F528" s="26" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="27"/>
       <c r="B529" s="28"/>
       <c r="C529" s="24" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D529" s="25" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
       <c r="E529" s="25" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="F529" s="26" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A530" s="27"/>
       <c r="B530" s="28"/>
       <c r="C530" s="24" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="D530" s="25" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="E530" s="25" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
       <c r="F530" s="26" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="54"/>
       <c r="B531" s="50"/>
       <c r="C531" s="24" t="s">
-        <v>1677</v>
+        <v>1666</v>
       </c>
       <c r="D531" s="25" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="E531" s="25" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="F531" s="26" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -15270,13 +15270,13 @@
         <v>118</v>
       </c>
       <c r="D532" s="25" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
       <c r="E532" s="25" t="s">
-        <v>1729</v>
+        <v>1718</v>
       </c>
       <c r="F532" s="26" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -15286,13 +15286,13 @@
         <v>122</v>
       </c>
       <c r="D533" s="25" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
       <c r="E533" s="25" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
       <c r="F533" s="26" t="s">
-        <v>1763</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -15302,29 +15302,29 @@
         <v>126</v>
       </c>
       <c r="D534" s="25" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="E534" s="25" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="F534" s="26" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A535" s="27"/>
       <c r="B535" s="24"/>
       <c r="C535" s="24" t="s">
-        <v>1719</v>
+        <v>1708</v>
       </c>
       <c r="D535" s="25" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="E535" s="25" t="s">
-        <v>1732</v>
+        <v>1721</v>
       </c>
       <c r="F535" s="26" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -15334,29 +15334,29 @@
         <v>140</v>
       </c>
       <c r="D536" s="25" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="E536" s="25" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="F536" s="26" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A537" s="27"/>
       <c r="B537" s="24"/>
       <c r="C537" s="24" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
       <c r="D537" s="25" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="E537" s="25" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="F537" s="26" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -15366,109 +15366,109 @@
         <v>154</v>
       </c>
       <c r="D538" s="25" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="E538" s="25" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="F538" s="26" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A539" s="27"/>
       <c r="B539" s="28"/>
       <c r="C539" s="24" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="D539" s="25" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="E539" s="25" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="F539" s="26" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A540" s="27"/>
       <c r="B540" s="28"/>
       <c r="C540" s="24" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="D540" s="25" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="E540" s="25" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="F540" s="26" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="54"/>
       <c r="B541" s="50"/>
       <c r="C541" s="24" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="D541" s="25" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="E541" s="25" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="F541" s="26" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="54"/>
       <c r="B542" s="50"/>
       <c r="C542" s="24" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="D542" s="25" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="E542" s="25" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="F542" s="26" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="54"/>
       <c r="B543" s="50"/>
       <c r="C543" s="24" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="D543" s="25" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="E543" s="25" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
       <c r="F543" s="26" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="54"/>
       <c r="B544" s="50"/>
       <c r="C544" s="24" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
       <c r="D544" s="25" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="E544" s="25" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
       <c r="F544" s="26" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15478,13 +15478,13 @@
         <v>234</v>
       </c>
       <c r="D545" s="25" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="E545" s="25" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
       <c r="F545" s="26" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15494,29 +15494,29 @@
         <v>238</v>
       </c>
       <c r="D546" s="25" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="E546" s="25" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="F546" s="26" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A547" s="27"/>
       <c r="B547" s="24"/>
       <c r="C547" s="24" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="D547" s="25" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="E547" s="25" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
       <c r="F547" s="26" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15526,233 +15526,233 @@
         <v>252</v>
       </c>
       <c r="D548" s="25" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="E548" s="25" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="F548" s="26" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A549" s="27"/>
       <c r="B549" s="28"/>
       <c r="C549" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="D549" s="25" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="E549" s="25" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="F549" s="26" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="54"/>
       <c r="B550" s="50"/>
       <c r="C550" s="24" t="s">
-        <v>1702</v>
+        <v>1691</v>
       </c>
       <c r="D550" s="25" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="E550" s="25" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
       <c r="F550" s="26" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A551" s="54"/>
       <c r="B551" s="50"/>
       <c r="C551" s="24" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="D551" s="25" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="E551" s="25" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
       <c r="F551" s="26" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A552" s="54"/>
       <c r="B552" s="50"/>
       <c r="C552" s="24" t="s">
-        <v>1706</v>
+        <v>1695</v>
       </c>
       <c r="D552" s="25" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
       <c r="E552" s="25" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="F552" s="26" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="27"/>
       <c r="B553" s="28"/>
       <c r="C553" s="24" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="D553" s="25" t="s">
-        <v>1707</v>
+        <v>1696</v>
       </c>
       <c r="E553" s="25" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="F553" s="26" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A554" s="27"/>
       <c r="B554" s="28"/>
       <c r="C554" s="24" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="D554" s="25" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="E554" s="25" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="F554" s="26" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="27"/>
       <c r="B555" s="28"/>
       <c r="C555" s="24" t="s">
-        <v>1712</v>
+        <v>1701</v>
       </c>
       <c r="D555" s="25" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="E555" s="25" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="F555" s="26" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A556" s="27"/>
       <c r="B556" s="28"/>
       <c r="C556" s="24" t="s">
-        <v>1714</v>
+        <v>1703</v>
       </c>
       <c r="D556" s="25" t="s">
-        <v>1713</v>
+        <v>1702</v>
       </c>
       <c r="E556" s="25" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
       <c r="F556" s="26" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="54"/>
       <c r="B557" s="50"/>
       <c r="C557" s="24" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
       <c r="D557" s="25" t="s">
-        <v>1715</v>
+        <v>1704</v>
       </c>
       <c r="E557" s="25" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="F557" s="26" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A558" s="32"/>
       <c r="B558" s="33"/>
       <c r="C558" s="20" t="s">
-        <v>1718</v>
+        <v>1707</v>
       </c>
       <c r="D558" s="21" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
       <c r="E558" s="21" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="F558" s="22" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="60" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="B559" s="61" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="C559" s="40" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="D559" s="41" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
       <c r="E559" s="41" t="s">
-        <v>1794</v>
+        <v>1783</v>
       </c>
       <c r="F559" s="42" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="60" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
       <c r="B560" s="61" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
       <c r="C560" s="40" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="D560" s="41" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="E560" s="41" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
       <c r="F560" s="42" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A561" s="30" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="B561" s="16" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
       <c r="C561" s="16" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
       <c r="D561" s="17" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
       <c r="E561" s="17" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="F561" s="18" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15762,259 +15762,259 @@
         <v>27</v>
       </c>
       <c r="D562" s="21" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
       <c r="E562" s="21" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
       <c r="F562" s="22" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A563" s="30" t="s">
-        <v>1814</v>
+        <v>1803</v>
       </c>
       <c r="B563" s="34" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
       <c r="C563" s="16" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="D563" s="17" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
       <c r="E563" s="17" t="s">
-        <v>1819</v>
+        <v>1808</v>
       </c>
       <c r="F563" s="18" t="s">
-        <v>1823</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="27"/>
       <c r="B564" s="28"/>
       <c r="C564" s="24" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="D564" s="25" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
       <c r="E564" s="25" t="s">
-        <v>1820</v>
+        <v>1809</v>
       </c>
       <c r="F564" s="26" t="s">
-        <v>1824</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A565" s="27"/>
       <c r="B565" s="28"/>
       <c r="C565" s="24" t="s">
-        <v>1817</v>
+        <v>1806</v>
       </c>
       <c r="D565" s="25" t="s">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="E565" s="25" t="s">
-        <v>1821</v>
+        <v>1810</v>
       </c>
       <c r="F565" s="26" t="s">
-        <v>1825</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="32"/>
       <c r="B566" s="33"/>
       <c r="C566" s="20" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="D566" s="21" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
       <c r="E566" s="21" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="F566" s="22" t="s">
-        <v>1826</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="60" t="s">
-        <v>1827</v>
+        <v>1816</v>
       </c>
       <c r="B567" s="61" t="s">
-        <v>1829</v>
+        <v>1818</v>
       </c>
       <c r="C567" s="40" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="D567" s="41" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E567" s="41" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="F567" s="42" t="s">
-        <v>1832</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="60" t="s">
-        <v>1876</v>
+        <v>1865</v>
       </c>
       <c r="B568" s="61" t="s">
-        <v>1834</v>
+        <v>1823</v>
       </c>
       <c r="C568" s="40" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="D568" s="41" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="E568" s="41" t="s">
-        <v>1836</v>
+        <v>1825</v>
       </c>
       <c r="F568" s="42" t="s">
-        <v>1837</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A569" s="30" t="s">
-        <v>1838</v>
+        <v>1827</v>
       </c>
       <c r="B569" s="34" t="s">
-        <v>1839</v>
+        <v>1828</v>
       </c>
       <c r="C569" s="16" t="s">
-        <v>1846</v>
+        <v>1835</v>
       </c>
       <c r="D569" s="17" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E569" s="17" t="s">
         <v>1840</v>
       </c>
-      <c r="E569" s="17" t="s">
-        <v>1851</v>
-      </c>
       <c r="F569" s="18" t="s">
-        <v>1856</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A570" s="27"/>
       <c r="B570" s="28"/>
       <c r="C570" s="24" t="s">
-        <v>1847</v>
+        <v>1836</v>
       </c>
       <c r="D570" s="25" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E570" s="25" t="s">
         <v>1841</v>
       </c>
-      <c r="E570" s="25" t="s">
-        <v>1852</v>
-      </c>
       <c r="F570" s="26" t="s">
-        <v>1857</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A571" s="27"/>
       <c r="B571" s="28"/>
       <c r="C571" s="24" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D571" s="25" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E571" s="25" t="s">
         <v>1842</v>
       </c>
-      <c r="E571" s="25" t="s">
-        <v>1853</v>
-      </c>
       <c r="F571" s="26" t="s">
-        <v>1858</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A572" s="27"/>
       <c r="B572" s="28"/>
       <c r="C572" s="24" t="s">
-        <v>1848</v>
+        <v>1837</v>
       </c>
       <c r="D572" s="25" t="s">
-        <v>1843</v>
+        <v>1832</v>
       </c>
       <c r="E572" s="25" t="s">
-        <v>1873</v>
+        <v>1862</v>
       </c>
       <c r="F572" s="26" t="s">
-        <v>1874</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A573" s="27"/>
       <c r="B573" s="28"/>
       <c r="C573" s="24" t="s">
-        <v>1849</v>
+        <v>1838</v>
       </c>
       <c r="D573" s="25" t="s">
-        <v>1844</v>
+        <v>1833</v>
       </c>
       <c r="E573" s="25" t="s">
-        <v>1854</v>
+        <v>1843</v>
       </c>
       <c r="F573" s="26" t="s">
-        <v>1859</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="32"/>
       <c r="B574" s="33"/>
       <c r="C574" s="20" t="s">
-        <v>1850</v>
+        <v>1839</v>
       </c>
       <c r="D574" s="21" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="E574" s="21" t="s">
-        <v>1855</v>
+        <v>1844</v>
       </c>
       <c r="F574" s="22" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A575" s="15" t="s">
-        <v>1861</v>
+        <v>1850</v>
       </c>
       <c r="B575" s="16" t="s">
-        <v>1862</v>
+        <v>1851</v>
       </c>
       <c r="C575" s="16">
         <v>10</v>
       </c>
       <c r="D575" s="17" t="s">
-        <v>1864</v>
+        <v>1853</v>
       </c>
       <c r="E575" s="17" t="s">
-        <v>1867</v>
+        <v>1856</v>
       </c>
       <c r="F575" s="18" t="s">
-        <v>1870</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A576" s="29" t="s">
-        <v>1863</v>
+        <v>1852</v>
       </c>
       <c r="B576" s="24"/>
       <c r="C576" s="24">
         <v>24</v>
       </c>
       <c r="D576" s="25" t="s">
-        <v>1865</v>
+        <v>1854</v>
       </c>
       <c r="E576" s="25" t="s">
-        <v>1868</v>
+        <v>1857</v>
       </c>
       <c r="F576" s="26" t="s">
-        <v>1871</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16024,33 +16024,33 @@
         <v>27</v>
       </c>
       <c r="D577" s="21" t="s">
-        <v>1866</v>
+        <v>1855</v>
       </c>
       <c r="E577" s="21" t="s">
-        <v>1869</v>
+        <v>1858</v>
       </c>
       <c r="F577" s="22" t="s">
-        <v>1872</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="15" t="s">
-        <v>1875</v>
+        <v>1864</v>
       </c>
       <c r="B578" s="16" t="s">
-        <v>1877</v>
+        <v>1866</v>
       </c>
       <c r="C578" s="16">
         <v>20</v>
       </c>
       <c r="D578" s="17" t="s">
-        <v>1878</v>
+        <v>1867</v>
       </c>
       <c r="E578" s="17" t="s">
-        <v>1883</v>
+        <v>1872</v>
       </c>
       <c r="F578" s="18" t="s">
-        <v>1888</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16062,13 +16062,13 @@
         <v>32</v>
       </c>
       <c r="D579" s="25" t="s">
-        <v>1879</v>
+        <v>1868</v>
       </c>
       <c r="E579" s="25" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
       <c r="F579" s="26" t="s">
-        <v>1889</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16078,13 +16078,13 @@
         <v>35</v>
       </c>
       <c r="D580" s="25" t="s">
-        <v>1880</v>
+        <v>1869</v>
       </c>
       <c r="E580" s="25" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="F580" s="26" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16094,13 +16094,13 @@
         <v>38</v>
       </c>
       <c r="D581" s="25" t="s">
-        <v>1881</v>
+        <v>1870</v>
       </c>
       <c r="E581" s="25" t="s">
-        <v>1886</v>
+        <v>1875</v>
       </c>
       <c r="F581" s="26" t="s">
-        <v>1891</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16110,13 +16110,13 @@
         <v>53</v>
       </c>
       <c r="D582" s="21" t="s">
-        <v>1882</v>
+        <v>1871</v>
       </c>
       <c r="E582" s="21" t="s">
-        <v>1887</v>
+        <v>1876</v>
       </c>
       <c r="F582" s="22" t="s">
-        <v>1892</v>
+        <v>1881</v>
       </c>
     </row>
   </sheetData>
